--- a/Definitions/k_Definitions_Groovy.xlsx
+++ b/Definitions/k_Definitions_Groovy.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Topics</t>
   </si>
@@ -42,13 +42,80 @@
   </si>
   <si>
     <t>Material Link Description</t>
+  </si>
+  <si>
+    <t>Projects</t>
+  </si>
+  <si>
+    <t>Definitions</t>
+  </si>
+  <si>
+    <t>What is Groovy</t>
+  </si>
+  <si>
+    <t>Groovy is an object oriented language which is based on Java platform</t>
+  </si>
+  <si>
+    <t>Features of Groovy</t>
+  </si>
+  <si>
+    <t>Support for both static and dynamic typing.
+Support for operator overloading.
+Native syntax for lists and associative arrays.
+Native support for regular expressions.
+Native support for various markup languages such as XML and HTML.
+Groovy is simple for Java developers since the syntax for Java and Groovy are very similar.
+You can use existing Java libraries.
+Groovy extends the java.lang.Object</t>
+  </si>
+  <si>
+    <t>Groovy official website</t>
+  </si>
+  <si>
+    <t>http://www.groovy-lang.org/</t>
+  </si>
+  <si>
+    <t>Groovy pdf from tutorials point</t>
+  </si>
+  <si>
+    <t>JavaPrep\Groovy\1_groovy_tutorial.pdf</t>
+  </si>
+  <si>
+    <t>Groovy Environment setup</t>
+  </si>
+  <si>
+    <t>Refer chapter 2 -&gt; Groovy Environment in 1_groovy_tutorial.pdf</t>
+  </si>
+  <si>
+    <t>GROOVY_HOME</t>
+  </si>
+  <si>
+    <t>C:\Program Files (x86)\Groovy\Groovy-2.4.7</t>
+  </si>
+  <si>
+    <t>PATH</t>
+  </si>
+  <si>
+    <t>%GROOVY_HOME%\bin</t>
+  </si>
+  <si>
+    <t>groovysh</t>
+  </si>
+  <si>
+    <t>Go to bin and type this command then you will enter into groovy shell</t>
+  </si>
+  <si>
+    <t>To exit Groovy shell</t>
+  </si>
+  <si>
+    <t>:exit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +150,13 @@
     <font>
       <b/>
       <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -182,7 +256,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -205,6 +279,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -565,11 +648,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -592,16 +675,105 @@
       </c>
       <c r="B2" s="8"/>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="10"/>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1"/>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="120">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="QuickStart!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
     <hyperlink ref="A2:B2" location="Topics!B2" display="Material Links"/>
+    <hyperlink ref="B4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Definitions/k_Definitions_Groovy.xlsx
+++ b/Definitions/k_Definitions_Groovy.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
-    <sheet name="QuickStart" sheetId="2" r:id="rId2"/>
+    <sheet name="Materials" sheetId="3" r:id="rId2"/>
+    <sheet name="QuickStart" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>Topics</t>
   </si>
@@ -41,9 +42,6 @@
     <t>Pluralsight - video name</t>
   </si>
   <si>
-    <t>Material Link Description</t>
-  </si>
-  <si>
     <t>Projects</t>
   </si>
   <si>
@@ -51,9 +49,6 @@
   </si>
   <si>
     <t>What is Groovy</t>
-  </si>
-  <si>
-    <t>Groovy is an object oriented language which is based on Java platform</t>
   </si>
   <si>
     <t>Features of Groovy</t>
@@ -69,18 +64,9 @@
 Groovy extends the java.lang.Object</t>
   </si>
   <si>
-    <t>Groovy official website</t>
-  </si>
-  <si>
     <t>http://www.groovy-lang.org/</t>
   </si>
   <si>
-    <t>Groovy pdf from tutorials point</t>
-  </si>
-  <si>
-    <t>JavaPrep\Groovy\1_groovy_tutorial.pdf</t>
-  </si>
-  <si>
     <t>Groovy Environment setup</t>
   </si>
   <si>
@@ -109,13 +95,104 @@
   </si>
   <si>
     <t>:exit</t>
+  </si>
+  <si>
+    <t>Materials</t>
+  </si>
+  <si>
+    <t>1. Groovy is an object oriented language which is based on Java platform
+2. Dynamic Language
+3. Compiles to JVM byte code
+4. Bring extra features to JVM such as functional programming, meta programming, excellent support to JSON and XML</t>
+  </si>
+  <si>
+    <t>Why Grrovy</t>
+  </si>
+  <si>
+    <t>1. Groovy is very accessable to Java developers
+2. We can use existing java libraries
+3. Groovy extends java.lang.Object</t>
+  </si>
+  <si>
+    <t>Where does Groovy Fit</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Web application development
+2. Building DSL (Domain Specific Languages). Means can be used like Apache Camel
+3. Writing test cases in more user readable format so that we can show them to business team. Popular Groovy based testing framework in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SPOCK. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4. Light weight and script like syntax and tight integration with Java API make it an excellent choice for writing small scripts in a JVM environment</t>
+    </r>
+  </si>
+  <si>
+    <t>Groovy official web site</t>
+  </si>
+  <si>
+    <t>Groovy Download link</t>
+  </si>
+  <si>
+    <t>http://www.groovy-lang.org/download.html</t>
+  </si>
+  <si>
+    <t>GVM</t>
+  </si>
+  <si>
+    <t>Groovy Environment Manager</t>
+  </si>
+  <si>
+    <t>check groovy version</t>
+  </si>
+  <si>
+    <t>groovy -v</t>
+  </si>
+  <si>
+    <t>Try this</t>
+  </si>
+  <si>
+    <t>1. open command prompt
+2. execute groovysh (set path environment variable if you see groovysh is not found as internal or external command)
+3. type 3+5 enter
+4. we will see 8</t>
+  </si>
+  <si>
+    <t>print statement</t>
+  </si>
+  <si>
+    <t>1. open groovy shell with command groovysh
+2. println "Welcome to Groovy"</t>
+  </si>
+  <si>
+    <t>try this</t>
+  </si>
+  <si>
+    <t>println "Welcome to " + "Groovy".toUpperCase()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,7 +226,6 @@
     </font>
     <font>
       <b/>
-      <u/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -158,12 +234,19 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,18 +268,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,7 +327,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -268,11 +339,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -280,13 +348,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -589,7 +651,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -599,48 +661,32 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="45.125" customWidth="1"/>
-    <col min="2" max="3" width="47.875" customWidth="1"/>
-    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D1" location="Topics!A2" display="Up"/>
+    <hyperlink ref="B1" location="Topics!A2" display="Up"/>
     <hyperlink ref="A2" location="QuickStart!A1" display="QuickStart"/>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="A3" location="Materials!A1" display="Materials"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -648,11 +694,78 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="58.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="102.375" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" location="Materials!A2" display="Up"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -670,95 +783,143 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
+      <c r="A3" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B4" s="1"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="10"/>
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="13" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:2" ht="60">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="10"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
+      <c r="B14" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="120">
       <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="22" spans="1:2" ht="90">
+      <c r="A22" t="s">
         <v>28</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="60">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -770,10 +931,9 @@
   <hyperlinks>
     <hyperlink ref="B1" location="QuickStart!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
-    <hyperlink ref="A2:B2" location="Topics!B2" display="Material Links"/>
-    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="A3" location="Materials!A1" display="Materials"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Definitions/k_Definitions_Groovy.xlsx
+++ b/Definitions/k_Definitions_Groovy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
   <si>
     <t>Topics</t>
   </si>
@@ -186,6 +186,77 @@
   </si>
   <si>
     <t>println "Welcome to " + "Groovy".toUpperCase()</t>
+  </si>
+  <si>
+    <t>First Groovy program</t>
+  </si>
+  <si>
+    <t>1. Open any folder like E:\practiceProjects\Groovy
+2. create Sample.groovy file
+3. write println "Welcome to Groovy" in that file
+4. open command prompt and go to location where Sample.groovy file is located
+5. run groovyc Sample.groovy -&gt; Now Sample.class file will be generated
+6. run groovy Sample -&gt; we can see Welcome to Groovy on command prompt</t>
+  </si>
+  <si>
+    <t>print today's date</t>
+  </si>
+  <si>
+    <t>println "Today's date " + new Date()</t>
+  </si>
+  <si>
+    <t>We don’t need to add import because automatically adds default/commonly used packages to classpath.</t>
+  </si>
+  <si>
+    <t>We can directly run groovy Sample.groovy -&gt; this will execute groovy and gives output</t>
+  </si>
+  <si>
+    <t>Groovy in eclipse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Install Groovy plugin
+2. Eclipse Help -&gt; Market place -&gt; </t>
+  </si>
+  <si>
+    <t>Create a variable sum</t>
+  </si>
+  <si>
+    <t>def sum = 3 + 5</t>
+  </si>
+  <si>
+    <t>def name = "Johny"
+println "$name"</t>
+  </si>
+  <si>
+    <t>declare a string and use it any where - this $ syntax is called G String</t>
+  </si>
+  <si>
+    <t>Collection iteration with G String</t>
+  </si>
+  <si>
+    <t>def beatles = ["johny", "depp", "jack"]
+def hello = "Hello, "
+for(int i=0;i&lt;beatles.size();i++){
+ println "$hello" + beatles[i]
+}</t>
+  </si>
+  <si>
+    <t>for(int i=0;i&lt;beatles.size();i++){
+ println "$hello" + "${beatles[i]}"
+}</t>
+  </si>
+  <si>
+    <t>for(def i=0;i&lt;beatles.size;i++){
+ println "$hello" + "${beatles[i]}"
+}</t>
+  </si>
+  <si>
+    <t>iterate collection with for each loop</t>
+  </si>
+  <si>
+    <t>for(beatle in beatles){
+ println "$hello" + "$beatle"
+}</t>
   </si>
 </sst>
 </file>
@@ -327,7 +398,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -342,15 +413,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -735,7 +807,7 @@
       <c r="A4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -743,7 +815,7 @@
       <c r="A5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -761,11 +833,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -783,10 +855,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="8"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
@@ -798,17 +870,17 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="8"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="13" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="8"/>
     </row>
     <row r="14" spans="1:2" ht="60">
       <c r="A14" t="s">
@@ -922,11 +994,94 @@
         <v>42</v>
       </c>
     </row>
+    <row r="28" spans="1:2" ht="90">
+      <c r="A28" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="9"/>
+      <c r="B29" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="9"/>
+      <c r="B31" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="90">
+      <c r="A35" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="45">
+      <c r="A36" s="9"/>
+      <c r="B36" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="45">
+      <c r="A37" s="9"/>
+      <c r="B37" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="45">
+      <c r="A38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="A35:A37"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A28:A29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="QuickStart!A2" display="Up"/>

--- a/Definitions/k_Definitions_Groovy.xlsx
+++ b/Definitions/k_Definitions_Groovy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="137">
   <si>
     <t>Topics</t>
   </si>
@@ -257,6 +257,408 @@
     <t>for(beatle in beatles){
  println "$hello" + "$beatle"
 }</t>
+  </si>
+  <si>
+    <t>Add Groovy to maven build</t>
+  </si>
+  <si>
+    <t>&lt;groupId&gt;org.codehaus.groovy&lt;/groupId&gt; 
+&lt;artifactId&gt;groovy&lt;/artifactId&gt; 
+&lt;version&gt;2.4.5&lt;/version&gt;</t>
+  </si>
+  <si>
+    <t>By default, Groovy includes the following libraries in your code, so you don’t need to explicitly import them</t>
+  </si>
+  <si>
+    <t>import java.lang.* 
+import java.util.* 
+import java.io.* 
+import java.net.* 
+import groovy.lang.* 
+import groovy.util.* 
+import java.math.BigInteger 
+import java.math.BigDecimal</t>
+  </si>
+  <si>
+    <t>Tokens in Groovy</t>
+  </si>
+  <si>
+    <t>A token is either a keyword, an identifier, a constant, a string literal, or a symbol</t>
+  </si>
+  <si>
+    <t>Single Comments in Groovy</t>
+  </si>
+  <si>
+    <t>class Example { 
+static void main(String[] args) { 
+// Using a simple println statement to print output to the console 
+println('Hello World'); } }</t>
+  </si>
+  <si>
+    <t>Multiline commentsin Groovy</t>
+  </si>
+  <si>
+    <t>class Example { 
+static void main(String[] args) { 
+/* This program is the first program This program shows how to display hello world */ 
+println('Hello World'); } }</t>
+  </si>
+  <si>
+    <t>Identifiers</t>
+  </si>
+  <si>
+    <t>Identifiers are used to define variables, functions or other user defined variables. Identifiers start with a letter, a dollar or an underscore. They cannot start with a number. Here are some examples of valid identifiers</t>
+  </si>
+  <si>
+    <t>def employeename
+def student1
+def student_name</t>
+  </si>
+  <si>
+    <t>where def is a keyword used in Groovy to define an identifier</t>
+  </si>
+  <si>
+    <t>Literals</t>
+  </si>
+  <si>
+    <t>12 
+1.45 
+‘a’ 
+“aa”</t>
+  </si>
+  <si>
+    <t>Class Numeric Types</t>
+  </si>
+  <si>
+    <t>In addition to the primitive types, the following object types (sometimes referred to as wrapper types) are allowed: 
+java.lang.Byte
+java.lang.Short
+java.lang.Integer
+java.lang.Long
+java.lang.Float
+java.lang.Double</t>
+  </si>
+  <si>
+    <t>Variables in Groovy</t>
+  </si>
+  <si>
+    <t>Variables in Groovy can be defined in two ways – using the native syntax for the data type or the next is by using the def keyword. For variable definitions it is mandatory to either provide a type name explicitly or to use "def" in replacement. This is required by the Groovy parser</t>
+  </si>
+  <si>
+    <t>Naming Variables</t>
+  </si>
+  <si>
+    <t>The name of a variable can be composed of letters, digits, and the underscore character. It must begin with either a letter or an underscore. Upper and lowercase letters are distinct because Groovy, just like Java is a case-sensitive programming language</t>
+  </si>
+  <si>
+    <t>Range Operators</t>
+  </si>
+  <si>
+    <t>Groovy supports the concept of ranges and provides a notation of range operators with the help of the .. notation. A simple example of the range operator is given below</t>
+  </si>
+  <si>
+    <t>class Example { static void main(String[] args) { 
+def range = 5..10; println(range); 
+println(range.get(2)); } }</t>
+  </si>
+  <si>
+    <t>output: [5, 6, 7, 8, 9, 10]
+7</t>
+  </si>
+  <si>
+    <t>while loop</t>
+  </si>
+  <si>
+    <t>static void main(String[] args){
+  def count = 0;
+  while(count &lt; 5){
+   println count;
+   count++;
+  }
+ }</t>
+  </si>
+  <si>
+    <t>for in loop</t>
+  </si>
+  <si>
+    <t>def range = 0 .. 5;
+  for(r in range){
+   println r;
+  }</t>
+  </si>
+  <si>
+    <t>for(val in 6 .. 10){
+   println val;
+  }</t>
+  </si>
+  <si>
+    <t>for(val in [11, 13, 15, 17, 19]){
+   println val;
+  }</t>
+  </si>
+  <si>
+    <t>iterate Map</t>
+  </si>
+  <si>
+    <t>def employees = ["john": 10, "jacky": 20, "depp":12];
+  for(e in employees){
+   println e;
+  }</t>
+  </si>
+  <si>
+    <t>Switch statement</t>
+  </si>
+  <si>
+    <t>int i = 10;
+  switch(i){
+   case 5:
+    println "Value is 5";
+    break;
+   case 10:
+    println "Value is 10";
+    break;
+  }</t>
+  </si>
+  <si>
+    <t>String s = "john";
+  switch(s){
+   case "john":
+    println "Value is john";
+    break;
+   case "jack":
+    println "Value is Jack";
+    break;
+  }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methods </t>
+  </si>
+  <si>
+    <t>A method is in Groovy is defined with a return type or with the def keyword. Methods can receive any number of arguments. It’s not necessary that the types are explicitly defined when defining the arguments. Modifiers such as public, private and protected can be added. By default, if no visibility modifier is provided, the method is public</t>
+  </si>
+  <si>
+    <t>class Methods {
+ static void main(String[] args){
+  Methods methods = new Methods();
+  method1();   methods.method2();  methods.sum(10, 20);  methods.sum(10, 20,30);
+ }
+ static def method1(){  println "Inside method1()" }
+ def method2(){  println "Inside method2()" }
+ def sum(a,b){  println a+b; }
+ def sum(int a, int b, int c){  println a+b+c; }
+}</t>
+  </si>
+  <si>
+    <t>Default Parameters</t>
+  </si>
+  <si>
+    <t>There is also a provision in Groovy to specify default values for parameters within methods. If no values are passed to the method for the parameters, the default ones are used. If both non-default and default parameters are used, then it has to be noted that the default parameters should be defined at the end of the parameter list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def method3(int a, int b = 20){
+  println a+b;
+ }
+output: methods.method3(20, 20); - 40
+methods.method3(10);  30 </t>
+  </si>
+  <si>
+    <t>Methodi wth return type</t>
+  </si>
+  <si>
+    <t>def int sum(def a, def b, def c, def d){
+  println "Inside sum(def a, def b, def c, def d)";
+  return a+b+c+d;
+ }
+calling above method: def sum = methods.sum(1, 2, 3, 4);
+  println "sum is: "+sum;</t>
+  </si>
+  <si>
+    <t>File IO</t>
+  </si>
+  <si>
+    <t>Groovy provides a number of helper methods when working with I/O. Groovy provides easier classes to provide the following functionalities for files
+1. Reading files
+2. Writing to files
+3. Traversing file trees
+4. Reading and writing data objects to files</t>
+  </si>
+  <si>
+    <t>In addition to this, you can always use the normal Java classes listed below for File I/O operations
+1. java.io.File
+2. java.io.InputStream
+3. java.io.OutputStream
+4. java.io.Reader
+5. java.io.Writer</t>
+  </si>
+  <si>
+    <t>Reading files</t>
+  </si>
+  <si>
+    <t>The following example will output all the lines of a text file in Groovy. The method eachLine is in-built in the File class in Groovy for the purpose of ensuring that each line of the text file is read.</t>
+  </si>
+  <si>
+    <t>static void main(String[] args){
+  new File("E:\\Backup\\batch.txt").eachLine { line -&gt; println "line: $line" }
+ }</t>
+  </si>
+  <si>
+    <t>Reading each line of a file</t>
+  </si>
+  <si>
+    <t>Reading the Contents of a File as an Entire String</t>
+  </si>
+  <si>
+    <t>If you want to get the entire contents of the file as a string, you can use the text property of the file class. The following example shows how this can be done</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">static void main(String[] args){
+  File file = new File("E:\\Backup\\batch.txt");
+  println </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>file.text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;
+ }</t>
+    </r>
+  </si>
+  <si>
+    <t>Writing to Files</t>
+  </si>
+  <si>
+    <t>static void main(String[] args){
+  File file = new File("E:\\Backup\\JavaPrep\\Groovy\\groovy_write_files", "example.txt");
+  file.withWriter { writer -&gt;
+   writer.writeLine("Welcome to Groovy File IO");
+  }
+ }</t>
+  </si>
+  <si>
+    <t>Getting the Size of a File</t>
+  </si>
+  <si>
+    <t>If you want to get the size of the file one can use the length property of the file class to get the size of the file</t>
+  </si>
+  <si>
+    <t>static void main(String[] args){
+  File file = new File("E:\\Backup\\batch.txt");
+  println "The file ${file.absolutePath} has ${file.length()} bytes";
+ }</t>
+  </si>
+  <si>
+    <t>Testing if a File is a Directory</t>
+  </si>
+  <si>
+    <t>static void main(String[] args){
+  File file1 = new File("E:\\Backup\\batch.txt");
+  File file2 = new File("E:\\Backup");
+  println "isFile? ${file1.isFile()}";
+  println "isDirectory? ${file1.isDirectory()}";
+  println "isFile? ${file2.isFile()}";
+  println "isDirectory? ${file2.isDirectory()}";
+ }</t>
+  </si>
+  <si>
+    <t>Creating a Directory</t>
+  </si>
+  <si>
+    <t>static void main(String[] args){
+  def file = new File("E:\\Backup\\JavaPrep\\Groovy\\groovy_write_files\\toDir");
+  file.mkdir();
+ }</t>
+  </si>
+  <si>
+    <t>Deleting a File</t>
+  </si>
+  <si>
+    <t>static void main(String[] args){
+  def file = new File("E:\\Backup\\JavaPrep\\Groovy\\groovy_write_files\\toDir");
+  file.delete();
+ }</t>
+  </si>
+  <si>
+    <t>Copying files</t>
+  </si>
+  <si>
+    <t>static void main(String[] args){
+  def src = new File("E:\\Backup\\JavaPrep\\Groovy\\groovy_write_files\\batch.txt");
+  def dest = new File("E:\\Backup\\JavaPrep\\Groovy\\groovy_write_files\\batch1.txt");
+  dest &lt;&lt; src.text;
+ }</t>
+  </si>
+  <si>
+    <t>Display files in a directory</t>
+  </si>
+  <si>
+    <t>static void main(String[] args){
+  File path = new File("E:\\Backup\\JavaPrep\\Groovy\\groovy_write_files");
+  path.eachFile { file -&gt;
+   println file.getAbsolutePath();
+  }
+ }</t>
+  </si>
+  <si>
+    <t>Display files in a directory and sub directory</t>
+  </si>
+  <si>
+    <t>static void main(String[] args){
+  File path = new File("E:\\Backup\\JavaPrep\\Groovy");
+  path.eachFileRecurse { file -&gt;
+   println file.getAbsolutePath();
+  }
+ }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If you want to recursively display all of files in a directory and its subdirectories, then you would use the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eachFileRecurse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> function of the File class</t>
+    </r>
+  </si>
+  <si>
+    <t>Spock Framework</t>
+  </si>
+  <si>
+    <t>Spock</t>
+  </si>
+  <si>
+    <t>http://spockframework.org/spock/docs/1.1-rc-2/all_in_one.html</t>
   </si>
 </sst>
 </file>
@@ -398,7 +800,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -416,13 +818,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -723,11 +1136,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -752,6 +1165,11 @@
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -766,11 +1184,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -819,6 +1237,14 @@
         <v>32</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
@@ -826,6 +1252,7 @@
     <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
     <hyperlink ref="B4" r:id="rId2"/>
     <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -833,21 +1260,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="56.125" customWidth="1"/>
+    <col min="1" max="1" width="56.125" style="5" customWidth="1"/>
     <col min="2" max="2" width="107.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -855,13 +1282,13 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="12"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -870,20 +1297,20 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="12"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="13" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="12"/>
     </row>
     <row r="14" spans="1:2" ht="60">
-      <c r="A14" t="s">
+      <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -891,7 +1318,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="120">
-      <c r="A15" t="s">
+      <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -899,7 +1326,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -907,7 +1334,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -915,7 +1342,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
@@ -923,7 +1350,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
+      <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
@@ -931,7 +1358,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
+      <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
@@ -939,7 +1366,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="45">
-      <c r="A21" t="s">
+      <c r="A21" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -947,7 +1374,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="90">
-      <c r="A22" t="s">
+      <c r="A22" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -955,7 +1382,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
+      <c r="A23" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B23" t="s">
@@ -963,7 +1390,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
+      <c r="A24" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B24" t="s">
@@ -971,7 +1398,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="60">
-      <c r="A25" t="s">
+      <c r="A25" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -979,7 +1406,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
-      <c r="A26" t="s">
+      <c r="A26" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -987,7 +1414,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
+      <c r="A27" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -995,7 +1422,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="90">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -1003,13 +1430,13 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="9"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="10" t="s">
         <v>45</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -1017,13 +1444,13 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="9"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" t="s">
+      <c r="A32" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -1031,7 +1458,7 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" t="s">
+      <c r="A33" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -1039,7 +1466,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="30">
-      <c r="A34" t="s">
+      <c r="A34" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -1047,7 +1474,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="90">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="10" t="s">
         <v>55</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -1055,33 +1482,361 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="45">
-      <c r="A36" s="9"/>
+      <c r="A36" s="10"/>
       <c r="B36" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="45">
-      <c r="A37" s="9"/>
+      <c r="A37" s="10"/>
       <c r="B37" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="45">
-      <c r="A38" t="s">
+      <c r="A38" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>60</v>
       </c>
     </row>
+    <row r="39" spans="1:2" ht="45">
+      <c r="A39" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="120">
+      <c r="A40" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="60">
+      <c r="A42" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="60">
+      <c r="A43" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30">
+      <c r="A44" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="45">
+      <c r="A45" s="10"/>
+      <c r="B45" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="10"/>
+      <c r="B46" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="60">
+      <c r="A47" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="105">
+      <c r="A48" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="45">
+      <c r="A49" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="30">
+      <c r="A50" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="30">
+      <c r="A51" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="45">
+      <c r="A52" s="10"/>
+      <c r="B52" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="30">
+      <c r="A53" s="10"/>
+      <c r="B53" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="105">
+      <c r="A54" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="60">
+      <c r="A55" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="45">
+      <c r="A56" s="10"/>
+      <c r="B56" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="45">
+      <c r="A57" s="10"/>
+      <c r="B57" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="60">
+      <c r="A58" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="135">
+      <c r="A59" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="135">
+      <c r="A60" s="10"/>
+      <c r="B60" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="45">
+      <c r="A61" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="210">
+      <c r="A62" s="10"/>
+      <c r="B62" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="45">
+      <c r="A63" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="75">
+      <c r="A64" s="10"/>
+      <c r="B64" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="90">
+      <c r="A65" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="90">
+      <c r="A66" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="90">
+      <c r="A67" s="10"/>
+      <c r="B67" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="30">
+      <c r="A68" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="45">
+      <c r="A69" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="30">
+      <c r="A70" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="60">
+      <c r="A71" s="10"/>
+      <c r="B71" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="90">
+      <c r="A72" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="60">
+      <c r="A74" s="10"/>
+      <c r="B74" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="135">
+      <c r="A75" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="60">
+      <c r="A76" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="60">
+      <c r="A77" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="75">
+      <c r="A78" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="90">
+      <c r="A79" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="30">
+      <c r="A80" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="90">
+      <c r="A81" s="10"/>
+      <c r="B81" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="16">
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A55:A57"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A66:A67"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="QuickStart!A2" display="Up"/>

--- a/Definitions/k_Definitions_Groovy.xlsx
+++ b/Definitions/k_Definitions_Groovy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="139">
   <si>
     <t>Topics</t>
   </si>
@@ -659,6 +659,12 @@
   </si>
   <si>
     <t>http://spockframework.org/spock/docs/1.1-rc-2/all_in_one.html</t>
+  </si>
+  <si>
+    <t>Groovy Eclipse plugin for Eclipse Luna</t>
+  </si>
+  <si>
+    <t>https://marketplace.eclipse.org/content/groovygrails-tool-suite-ggts-eclipse</t>
   </si>
 </sst>
 </file>
@@ -800,7 +806,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -820,6 +826,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1184,11 +1193,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1245,6 +1254,14 @@
         <v>136</v>
       </c>
     </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
@@ -1253,6 +1270,7 @@
     <hyperlink ref="B4" r:id="rId2"/>
     <hyperlink ref="B5" r:id="rId3"/>
     <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B7" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1282,10 +1300,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="13"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
@@ -1297,17 +1315,17 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="13"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="13" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="13"/>
     </row>
     <row r="14" spans="1:2" ht="60">
       <c r="A14" s="5" t="s">
@@ -1422,7 +1440,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="90">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -1430,13 +1448,13 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="10"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -1444,7 +1462,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="10"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="5" t="s">
         <v>47</v>
       </c>
@@ -1474,7 +1492,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="90">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="11" t="s">
         <v>55</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -1482,13 +1500,13 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="45">
-      <c r="A36" s="10"/>
+      <c r="A36" s="11"/>
       <c r="B36" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="45">
-      <c r="A37" s="10"/>
+      <c r="A37" s="11"/>
       <c r="B37" s="5" t="s">
         <v>58</v>
       </c>
@@ -1542,7 +1560,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="30">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="11" t="s">
         <v>71</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -1550,13 +1568,13 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="45">
-      <c r="A45" s="10"/>
+      <c r="A45" s="11"/>
       <c r="B45" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="10"/>
+      <c r="A46" s="11"/>
       <c r="B46" s="5" t="s">
         <v>74</v>
       </c>
@@ -1594,7 +1612,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="30">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="11" t="s">
         <v>83</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -1602,13 +1620,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="10"/>
+      <c r="A52" s="11"/>
       <c r="B52" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="30">
-      <c r="A53" s="10"/>
+      <c r="A53" s="11"/>
       <c r="B53" s="5" t="s">
         <v>86</v>
       </c>
@@ -1622,7 +1640,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="60">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="11" t="s">
         <v>89</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -1630,13 +1648,13 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="45">
-      <c r="A56" s="10"/>
+      <c r="A56" s="11"/>
       <c r="B56" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="45">
-      <c r="A57" s="10"/>
+      <c r="A57" s="11"/>
       <c r="B57" s="5" t="s">
         <v>92</v>
       </c>
@@ -1650,7 +1668,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="135">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="11" t="s">
         <v>95</v>
       </c>
       <c r="B59" s="8" t="s">
@@ -1658,13 +1676,13 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="135">
-      <c r="A60" s="10"/>
+      <c r="A60" s="11"/>
       <c r="B60" s="8" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="45">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="11" t="s">
         <v>98</v>
       </c>
       <c r="B61" s="8" t="s">
@@ -1672,13 +1690,13 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="210">
-      <c r="A62" s="10"/>
+      <c r="A62" s="11"/>
       <c r="B62" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="45">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="11" t="s">
         <v>101</v>
       </c>
       <c r="B63" s="8" t="s">
@@ -1686,7 +1704,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" ht="75">
-      <c r="A64" s="10"/>
+      <c r="A64" s="11"/>
       <c r="B64" s="8" t="s">
         <v>103</v>
       </c>
@@ -1700,7 +1718,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" ht="90">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="11" t="s">
         <v>106</v>
       </c>
       <c r="B66" s="8" t="s">
@@ -1708,7 +1726,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="90">
-      <c r="A67" s="10"/>
+      <c r="A67" s="11"/>
       <c r="B67" s="8" t="s">
         <v>108</v>
       </c>
@@ -1730,7 +1748,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" ht="30">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="11" t="s">
         <v>113</v>
       </c>
       <c r="B70" s="8" t="s">
@@ -1738,7 +1756,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" ht="60">
-      <c r="A71" s="10"/>
+      <c r="A71" s="11"/>
       <c r="B71" s="8" t="s">
         <v>115</v>
       </c>
@@ -1752,7 +1770,7 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B73" s="8" t="s">
@@ -1760,7 +1778,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" ht="60">
-      <c r="A74" s="10"/>
+      <c r="A74" s="11"/>
       <c r="B74" s="8" t="s">
         <v>120</v>
       </c>
@@ -1806,7 +1824,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" ht="30">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="11" t="s">
         <v>131</v>
       </c>
       <c r="B80" s="8" t="s">
@@ -1814,13 +1832,20 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="90">
-      <c r="A81" s="10"/>
+      <c r="A81" s="11"/>
       <c r="B81" s="8" t="s">
         <v>132</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A66:A67"/>
     <mergeCell ref="A44:A46"/>
     <mergeCell ref="A51:A53"/>
     <mergeCell ref="A55:A57"/>
@@ -1830,13 +1855,6 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A66:A67"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="QuickStart!A2" display="Up"/>

--- a/Definitions/k_Definitions_Groovy.xlsx
+++ b/Definitions/k_Definitions_Groovy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -1149,7 +1149,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1195,9 +1195,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1280,9 +1280,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1839,13 +1839,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A66:A67"/>
     <mergeCell ref="A44:A46"/>
     <mergeCell ref="A51:A53"/>
     <mergeCell ref="A55:A57"/>
@@ -1855,6 +1848,13 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A66:A67"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="QuickStart!A2" display="Up"/>

--- a/Definitions/k_Definitions_Groovy.xlsx
+++ b/Definitions/k_Definitions_Groovy.xlsx
@@ -1839,6 +1839,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A66:A67"/>
     <mergeCell ref="A44:A46"/>
     <mergeCell ref="A51:A53"/>
     <mergeCell ref="A55:A57"/>
@@ -1848,13 +1855,6 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A66:A67"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="QuickStart!A2" display="Up"/>

--- a/Definitions/k_Definitions_Groovy.xlsx
+++ b/Definitions/k_Definitions_Groovy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="141">
   <si>
     <t>Topics</t>
   </si>
@@ -665,6 +665,12 @@
   </si>
   <si>
     <t>https://marketplace.eclipse.org/content/groovygrails-tool-suite-ggts-eclipse</t>
+  </si>
+  <si>
+    <t>http://thejavatar.com/testing-with-spock/</t>
+  </si>
+  <si>
+    <t>Groovy</t>
   </si>
 </sst>
 </file>
@@ -725,7 +731,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -747,6 +753,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1003BD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,7 +818,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -839,10 +851,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -854,6 +872,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF1003BD"/>
       <color rgb="FFFF0000"/>
     </mruColors>
   </colors>
@@ -1149,7 +1168,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1193,11 +1212,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1215,64 +1234,90 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A2" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="15"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B6" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="9" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="15"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B12" s="6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>138</v>
+    <row r="13" spans="1:2">
+      <c r="A13" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId1"/>
     <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B6" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B12" r:id="rId4"/>
+    <hyperlink ref="B8" r:id="rId5"/>
+    <hyperlink ref="B13" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -1280,9 +1325,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1300,10 +1345,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
@@ -1315,17 +1360,17 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="14"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="13" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="14"/>
     </row>
     <row r="14" spans="1:2" ht="60">
       <c r="A14" s="5" t="s">
@@ -1440,7 +1485,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="90">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -1448,13 +1493,13 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="11"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="12" t="s">
         <v>45</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -1462,7 +1507,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="11"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="5" t="s">
         <v>47</v>
       </c>
@@ -1492,7 +1537,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="90">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -1500,13 +1545,13 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="45">
-      <c r="A36" s="11"/>
+      <c r="A36" s="12"/>
       <c r="B36" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="45">
-      <c r="A37" s="11"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="5" t="s">
         <v>58</v>
       </c>
@@ -1560,7 +1605,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="30">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -1568,13 +1613,13 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="45">
-      <c r="A45" s="11"/>
+      <c r="A45" s="12"/>
       <c r="B45" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="11"/>
+      <c r="A46" s="12"/>
       <c r="B46" s="5" t="s">
         <v>74</v>
       </c>
@@ -1612,7 +1657,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="30">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="12" t="s">
         <v>83</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -1620,13 +1665,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="11"/>
+      <c r="A52" s="12"/>
       <c r="B52" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="30">
-      <c r="A53" s="11"/>
+      <c r="A53" s="12"/>
       <c r="B53" s="5" t="s">
         <v>86</v>
       </c>
@@ -1640,7 +1685,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="60">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="12" t="s">
         <v>89</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -1648,13 +1693,13 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="45">
-      <c r="A56" s="11"/>
+      <c r="A56" s="12"/>
       <c r="B56" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="45">
-      <c r="A57" s="11"/>
+      <c r="A57" s="12"/>
       <c r="B57" s="5" t="s">
         <v>92</v>
       </c>
@@ -1668,7 +1713,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="135">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="12" t="s">
         <v>95</v>
       </c>
       <c r="B59" s="8" t="s">
@@ -1676,13 +1721,13 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="135">
-      <c r="A60" s="11"/>
+      <c r="A60" s="12"/>
       <c r="B60" s="8" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="45">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="12" t="s">
         <v>98</v>
       </c>
       <c r="B61" s="8" t="s">
@@ -1690,13 +1735,13 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="210">
-      <c r="A62" s="11"/>
+      <c r="A62" s="12"/>
       <c r="B62" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="45">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="12" t="s">
         <v>101</v>
       </c>
       <c r="B63" s="8" t="s">
@@ -1704,7 +1749,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" ht="75">
-      <c r="A64" s="11"/>
+      <c r="A64" s="12"/>
       <c r="B64" s="8" t="s">
         <v>103</v>
       </c>
@@ -1718,7 +1763,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" ht="90">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="12" t="s">
         <v>106</v>
       </c>
       <c r="B66" s="8" t="s">
@@ -1726,7 +1771,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="90">
-      <c r="A67" s="11"/>
+      <c r="A67" s="12"/>
       <c r="B67" s="8" t="s">
         <v>108</v>
       </c>
@@ -1748,7 +1793,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" ht="30">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="12" t="s">
         <v>113</v>
       </c>
       <c r="B70" s="8" t="s">
@@ -1756,7 +1801,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" ht="60">
-      <c r="A71" s="11"/>
+      <c r="A71" s="12"/>
       <c r="B71" s="8" t="s">
         <v>115</v>
       </c>
@@ -1770,7 +1815,7 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="12" t="s">
         <v>118</v>
       </c>
       <c r="B73" s="8" t="s">
@@ -1778,7 +1823,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" ht="60">
-      <c r="A74" s="11"/>
+      <c r="A74" s="12"/>
       <c r="B74" s="8" t="s">
         <v>120</v>
       </c>
@@ -1824,7 +1869,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" ht="30">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="12" t="s">
         <v>131</v>
       </c>
       <c r="B80" s="8" t="s">
@@ -1832,20 +1877,13 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="90">
-      <c r="A81" s="11"/>
+      <c r="A81" s="12"/>
       <c r="B81" s="8" t="s">
         <v>132</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A66:A67"/>
     <mergeCell ref="A44:A46"/>
     <mergeCell ref="A51:A53"/>
     <mergeCell ref="A55:A57"/>
@@ -1855,6 +1893,13 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A66:A67"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="QuickStart!A2" display="Up"/>

--- a/Definitions/k_Definitions_Groovy.xlsx
+++ b/Definitions/k_Definitions_Groovy.xlsx
@@ -851,6 +851,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -858,9 +861,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1216,7 +1216,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1234,10 +1234,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="12"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -1280,10 +1280,10 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="15"/>
+      <c r="B11" s="12"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="9" t="s">
@@ -1345,10 +1345,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="15"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
@@ -1360,17 +1360,17 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="15"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="13" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="14"/>
+      <c r="B13" s="15"/>
     </row>
     <row r="14" spans="1:2" ht="60">
       <c r="A14" s="5" t="s">
@@ -1485,7 +1485,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="90">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -1493,13 +1493,13 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="12"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -1507,7 +1507,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="12"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="5" t="s">
         <v>47</v>
       </c>
@@ -1537,7 +1537,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="90">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="13" t="s">
         <v>55</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -1545,13 +1545,13 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="45">
-      <c r="A36" s="12"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="45">
-      <c r="A37" s="12"/>
+      <c r="A37" s="13"/>
       <c r="B37" s="5" t="s">
         <v>58</v>
       </c>
@@ -1605,7 +1605,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="30">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="13" t="s">
         <v>71</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -1613,13 +1613,13 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="45">
-      <c r="A45" s="12"/>
+      <c r="A45" s="13"/>
       <c r="B45" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="12"/>
+      <c r="A46" s="13"/>
       <c r="B46" s="5" t="s">
         <v>74</v>
       </c>
@@ -1657,7 +1657,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="30">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="13" t="s">
         <v>83</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -1665,13 +1665,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="12"/>
+      <c r="A52" s="13"/>
       <c r="B52" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="30">
-      <c r="A53" s="12"/>
+      <c r="A53" s="13"/>
       <c r="B53" s="5" t="s">
         <v>86</v>
       </c>
@@ -1685,7 +1685,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="60">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="13" t="s">
         <v>89</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -1693,13 +1693,13 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="45">
-      <c r="A56" s="12"/>
+      <c r="A56" s="13"/>
       <c r="B56" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="45">
-      <c r="A57" s="12"/>
+      <c r="A57" s="13"/>
       <c r="B57" s="5" t="s">
         <v>92</v>
       </c>
@@ -1713,7 +1713,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="135">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="13" t="s">
         <v>95</v>
       </c>
       <c r="B59" s="8" t="s">
@@ -1721,13 +1721,13 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="135">
-      <c r="A60" s="12"/>
+      <c r="A60" s="13"/>
       <c r="B60" s="8" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="45">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="13" t="s">
         <v>98</v>
       </c>
       <c r="B61" s="8" t="s">
@@ -1735,13 +1735,13 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="210">
-      <c r="A62" s="12"/>
+      <c r="A62" s="13"/>
       <c r="B62" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="45">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="13" t="s">
         <v>101</v>
       </c>
       <c r="B63" s="8" t="s">
@@ -1749,7 +1749,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" ht="75">
-      <c r="A64" s="12"/>
+      <c r="A64" s="13"/>
       <c r="B64" s="8" t="s">
         <v>103</v>
       </c>
@@ -1763,7 +1763,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" ht="90">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="13" t="s">
         <v>106</v>
       </c>
       <c r="B66" s="8" t="s">
@@ -1771,7 +1771,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="90">
-      <c r="A67" s="12"/>
+      <c r="A67" s="13"/>
       <c r="B67" s="8" t="s">
         <v>108</v>
       </c>
@@ -1793,7 +1793,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" ht="30">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="13" t="s">
         <v>113</v>
       </c>
       <c r="B70" s="8" t="s">
@@ -1801,7 +1801,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" ht="60">
-      <c r="A71" s="12"/>
+      <c r="A71" s="13"/>
       <c r="B71" s="8" t="s">
         <v>115</v>
       </c>
@@ -1815,7 +1815,7 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="12" t="s">
+      <c r="A73" s="13" t="s">
         <v>118</v>
       </c>
       <c r="B73" s="8" t="s">
@@ -1823,7 +1823,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" ht="60">
-      <c r="A74" s="12"/>
+      <c r="A74" s="13"/>
       <c r="B74" s="8" t="s">
         <v>120</v>
       </c>
@@ -1869,7 +1869,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" ht="30">
-      <c r="A80" s="12" t="s">
+      <c r="A80" s="13" t="s">
         <v>131</v>
       </c>
       <c r="B80" s="8" t="s">
@@ -1877,7 +1877,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="90">
-      <c r="A81" s="12"/>
+      <c r="A81" s="13"/>
       <c r="B81" s="8" t="s">
         <v>132</v>
       </c>

--- a/Definitions/k_Definitions_Groovy.xlsx
+++ b/Definitions/k_Definitions_Groovy.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
     <sheet name="Materials" sheetId="3" r:id="rId2"/>
     <sheet name="QuickStart" sheetId="2" r:id="rId3"/>
+    <sheet name="Spock" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="143">
   <si>
     <t>Topics</t>
   </si>
@@ -27,13 +28,7 @@
     <t>QuickStart</t>
   </si>
   <si>
-    <t>Material Links</t>
-  </si>
-  <si>
     <t>Tutorials point</t>
-  </si>
-  <si>
-    <t>http://www.tutorialspoint.com/groovy/</t>
   </si>
   <si>
     <t>Groovy Fundamentals</t>
@@ -286,16 +281,10 @@
     <t>A token is either a keyword, an identifier, a constant, a string literal, or a symbol</t>
   </si>
   <si>
-    <t>Single Comments in Groovy</t>
-  </si>
-  <si>
     <t>class Example { 
 static void main(String[] args) { 
 // Using a simple println statement to print output to the console 
 println('Hello World'); } }</t>
-  </si>
-  <si>
-    <t>Multiline commentsin Groovy</t>
   </si>
   <si>
     <t>class Example { 
@@ -460,9 +449,6 @@
  }
 output: methods.method3(20, 20); - 40
 methods.method3(10);  30 </t>
-  </si>
-  <si>
-    <t>Methodi wth return type</t>
   </si>
   <si>
     <t>def int sum(def a, def b, def c, def d){
@@ -671,6 +657,31 @@
   </si>
   <si>
     <t>Groovy</t>
+  </si>
+  <si>
+    <t>Github link</t>
+  </si>
+  <si>
+    <t>https://github.com/avinashbabudonthu/GroovyPractice.git</t>
+  </si>
+  <si>
+    <t>https://github.com/avinashbabudonthu/SpockPractice.git</t>
+  </si>
+  <si>
+    <t>JavaPrep\Groovy\1_groovy_tutorial.pdf</t>
+  </si>
+  <si>
+    <t>Single Comments in Groovy
+comment short cut: Ctrl + /
+un comment short cut: Ctrl + /</t>
+  </si>
+  <si>
+    <t>Multiline commentsin Groovy
+comment short cut: Ctrl + Shift + /
+un comment short cut: Ctrl + Shift + /</t>
+  </si>
+  <si>
+    <t>Methodi with return type</t>
   </si>
 </sst>
 </file>
@@ -731,7 +742,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -753,12 +764,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1003BD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,7 +823,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -851,8 +856,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1174,7 +1182,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="45.125" customWidth="1"/>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="100.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1192,12 +1200,12 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>135</v>
+      <c r="A4" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1205,6 +1213,7 @@
     <hyperlink ref="B1" location="Topics!A2" display="Up"/>
     <hyperlink ref="A2" location="QuickStart!A1" display="QuickStart"/>
     <hyperlink ref="A3" location="Materials!A1" display="Materials"/>
+    <hyperlink ref="A4" location="Spock!A1" display="Spock"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1212,11 +1221,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1225,7 +1234,7 @@
     <col min="2" max="2" width="102.375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1233,101 +1242,101 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" s="12"/>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A2" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="16"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>138</v>
-      </c>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A10" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="16"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="B11" s="12"/>
+      <c r="A11" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
-    <hyperlink ref="B4" r:id="rId1"/>
     <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
-    <hyperlink ref="B5" r:id="rId2"/>
-    <hyperlink ref="B6" r:id="rId3"/>
-    <hyperlink ref="B12" r:id="rId4"/>
-    <hyperlink ref="B8" r:id="rId5"/>
-    <hyperlink ref="B13" r:id="rId6"/>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B11" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId4"/>
+    <hyperlink ref="B12" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A61" sqref="A61:A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1345,568 +1354,618 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="15"/>
+      <c r="A2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="16"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1"/>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="16"/>
+    </row>
+    <row r="9" spans="1:2" ht="60">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="120">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="45">
+      <c r="A16" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="B4" s="1"/>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="15"/>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1"/>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A13" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="15"/>
-    </row>
-    <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="120">
-      <c r="A15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="90">
       <c r="A17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="60">
       <c r="A20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="45">
+        <v>35</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30">
       <c r="A21" s="5" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="90">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="90">
+      <c r="A23" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="60">
-      <c r="A25" s="5" t="s">
-        <v>37</v>
+      <c r="A24" s="14"/>
+      <c r="B24" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="30">
-      <c r="A26" s="5" t="s">
-        <v>39</v>
-      </c>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="14"/>
       <c r="B26" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30">
       <c r="A27" s="5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="90">
-      <c r="A28" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="13"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30">
+      <c r="A29" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="B29" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="13" t="s">
-        <v>45</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="90">
+      <c r="A30" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="13"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="45">
+      <c r="A31" s="14"/>
       <c r="B31" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="5" t="s">
-        <v>49</v>
-      </c>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="45">
+      <c r="A32" s="14"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="45">
       <c r="A33" s="5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="30">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="45">
       <c r="A34" s="5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="90">
-      <c r="A35" s="13" t="s">
-        <v>55</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="120">
+      <c r="A35" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="45">
-      <c r="A36" s="13"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="B36" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="45">
-      <c r="A37" s="13"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="60">
+      <c r="A37" s="13" t="s">
+        <v>140</v>
+      </c>
       <c r="B37" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="45">
-      <c r="A38" s="5" t="s">
-        <v>59</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="60">
+      <c r="A38" s="13" t="s">
+        <v>141</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="45">
-      <c r="A39" s="5" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30">
+      <c r="A39" s="14" t="s">
+        <v>67</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="120">
-      <c r="A40" s="5" t="s">
-        <v>63</v>
-      </c>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="45">
+      <c r="A40" s="14"/>
       <c r="B40" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="A41" s="14"/>
       <c r="B41" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="60">
       <c r="A42" s="5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="60">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="105">
       <c r="A43" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="30">
-      <c r="A44" s="13" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="45">
+      <c r="A44" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="45">
-      <c r="A45" s="13"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30">
+      <c r="A45" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="B45" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="13"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30">
+      <c r="A46" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="B46" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="60">
-      <c r="A47" s="5" t="s">
-        <v>75</v>
-      </c>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="45">
+      <c r="A47" s="14"/>
       <c r="B47" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="105">
-      <c r="A48" s="5" t="s">
-        <v>77</v>
-      </c>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="30">
+      <c r="A48" s="14"/>
       <c r="B48" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="45">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="105">
       <c r="A49" s="5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="60">
+      <c r="A50" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="30">
-      <c r="A51" s="13" t="s">
-        <v>83</v>
-      </c>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="45">
+      <c r="A51" s="14"/>
       <c r="B51" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="13"/>
+      <c r="A52" s="14"/>
       <c r="B52" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="30">
-      <c r="A53" s="13"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="60">
+      <c r="A53" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="B53" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="105">
-      <c r="A54" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="60">
-      <c r="A55" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B55" s="5" t="s">
         <v>90</v>
       </c>
     </row>
+    <row r="54" spans="1:2" ht="135">
+      <c r="A54" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="135">
+      <c r="A55" s="14"/>
+      <c r="B55" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
     <row r="56" spans="1:2" ht="45">
-      <c r="A56" s="13"/>
-      <c r="B56" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="45">
-      <c r="A57" s="13"/>
-      <c r="B57" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="60">
-      <c r="A58" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B58" s="5" t="s">
+      <c r="A56" s="14" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" ht="135">
-      <c r="A59" s="13" t="s">
+      <c r="B56" s="8" t="s">
         <v>95</v>
       </c>
+    </row>
+    <row r="57" spans="1:2" ht="210">
+      <c r="A57" s="14"/>
+      <c r="B57" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="45">
+      <c r="A58" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="75">
+      <c r="A59" s="14"/>
       <c r="B59" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="135">
-      <c r="A60" s="13"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="90">
+      <c r="A60" s="13" t="s">
+        <v>142</v>
+      </c>
       <c r="B60" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="45">
-      <c r="A61" s="13" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="90">
+      <c r="A61" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="210">
-      <c r="A62" s="13"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="90">
+      <c r="A62" s="14"/>
       <c r="B62" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="45">
-      <c r="A63" s="13" t="s">
-        <v>101</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="30">
+      <c r="A63" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="75">
-      <c r="A64" s="13"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="45">
+      <c r="A64" s="8" t="s">
+        <v>107</v>
+      </c>
       <c r="B64" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="90">
-      <c r="A65" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="30">
+      <c r="A65" s="14" t="s">
+        <v>108</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="90">
-      <c r="A66" s="13" t="s">
-        <v>106</v>
-      </c>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="60">
+      <c r="A66" s="14"/>
       <c r="B66" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="90">
-      <c r="A67" s="13"/>
+      <c r="A67" s="8" t="s">
+        <v>111</v>
+      </c>
       <c r="B67" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="30">
-      <c r="A68" s="8" t="s">
-        <v>109</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="45">
-      <c r="A69" s="8" t="s">
-        <v>112</v>
-      </c>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="60">
+      <c r="A69" s="14"/>
       <c r="B69" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="30">
-      <c r="A70" s="13" t="s">
-        <v>113</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="135">
+      <c r="A70" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="60">
-      <c r="A71" s="13"/>
+      <c r="A71" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="B71" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="90">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="60">
       <c r="A72" s="8" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="13" t="s">
-        <v>118</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="75">
+      <c r="A73" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="60">
-      <c r="A74" s="13"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="90">
+      <c r="A74" s="8" t="s">
+        <v>124</v>
+      </c>
       <c r="B74" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="135">
-      <c r="A75" s="8" t="s">
-        <v>121</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="30">
+      <c r="A75" s="14" t="s">
+        <v>126</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="60">
-      <c r="A76" s="8" t="s">
-        <v>123</v>
-      </c>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="90">
+      <c r="A76" s="14"/>
       <c r="B76" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="60">
-      <c r="A77" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="75">
-      <c r="A78" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B78" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="90">
-      <c r="A79" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="30">
-      <c r="A80" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="90">
-      <c r="A81" s="13"/>
-      <c r="B81" s="8" t="s">
-        <v>132</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A35:A37"/>
+  <mergeCells count="15">
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A30:A32"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
     <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A66:A67"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="QuickStart!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
-    <hyperlink ref="A3" location="Materials!A1" display="Materials"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="54.25" customWidth="1"/>
+    <col min="2" max="2" width="109.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="16"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="Spock!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A4" display="Topics"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Definitions/k_Definitions_Groovy.xlsx
+++ b/Definitions/k_Definitions_Groovy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -862,14 +862,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1223,9 +1223,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:B10"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1243,10 +1243,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="15"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -1290,10 +1290,10 @@
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="15"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="9" t="s">
@@ -1334,9 +1334,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A61" sqref="A61:A62"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1354,10 +1354,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="15"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="12" t="s">
@@ -1369,10 +1369,10 @@
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="15"/>
     </row>
     <row r="9" spans="1:2" ht="60">
       <c r="A9" s="5" t="s">
@@ -1487,7 +1487,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="90">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1495,13 +1495,13 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="14"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="16" t="s">
         <v>43</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -1509,7 +1509,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="14"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="5" t="s">
         <v>45</v>
       </c>
@@ -1539,7 +1539,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="90">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="16" t="s">
         <v>53</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -1547,13 +1547,13 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="14"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="45">
-      <c r="A32" s="14"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="5" t="s">
         <v>56</v>
       </c>
@@ -1607,7 +1607,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="16" t="s">
         <v>67</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -1615,13 +1615,13 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="45">
-      <c r="A40" s="14"/>
+      <c r="A40" s="16"/>
       <c r="B40" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="14"/>
+      <c r="A41" s="16"/>
       <c r="B41" s="5" t="s">
         <v>70</v>
       </c>
@@ -1659,7 +1659,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="30">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="16" t="s">
         <v>79</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -1667,13 +1667,13 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="45">
-      <c r="A47" s="14"/>
+      <c r="A47" s="16"/>
       <c r="B47" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="30">
-      <c r="A48" s="14"/>
+      <c r="A48" s="16"/>
       <c r="B48" s="5" t="s">
         <v>82</v>
       </c>
@@ -1687,7 +1687,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="60">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="16" t="s">
         <v>85</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -1695,13 +1695,13 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="14"/>
+      <c r="A51" s="16"/>
       <c r="B51" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="14"/>
+      <c r="A52" s="16"/>
       <c r="B52" s="5" t="s">
         <v>88</v>
       </c>
@@ -1715,7 +1715,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="135">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="16" t="s">
         <v>91</v>
       </c>
       <c r="B54" s="8" t="s">
@@ -1723,13 +1723,13 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="135">
-      <c r="A55" s="14"/>
+      <c r="A55" s="16"/>
       <c r="B55" s="8" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="45">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="16" t="s">
         <v>94</v>
       </c>
       <c r="B56" s="8" t="s">
@@ -1737,13 +1737,13 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="210">
-      <c r="A57" s="14"/>
+      <c r="A57" s="16"/>
       <c r="B57" s="8" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="16" t="s">
         <v>97</v>
       </c>
       <c r="B58" s="8" t="s">
@@ -1751,7 +1751,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="75">
-      <c r="A59" s="14"/>
+      <c r="A59" s="16"/>
       <c r="B59" s="8" t="s">
         <v>99</v>
       </c>
@@ -1765,7 +1765,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="90">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="16" t="s">
         <v>101</v>
       </c>
       <c r="B61" s="8" t="s">
@@ -1773,7 +1773,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="90">
-      <c r="A62" s="14"/>
+      <c r="A62" s="16"/>
       <c r="B62" s="8" t="s">
         <v>103</v>
       </c>
@@ -1795,7 +1795,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="30">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="16" t="s">
         <v>108</v>
       </c>
       <c r="B65" s="8" t="s">
@@ -1803,7 +1803,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" ht="60">
-      <c r="A66" s="14"/>
+      <c r="A66" s="16"/>
       <c r="B66" s="8" t="s">
         <v>110</v>
       </c>
@@ -1817,7 +1817,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="16" t="s">
         <v>113</v>
       </c>
       <c r="B68" s="8" t="s">
@@ -1825,7 +1825,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="60">
-      <c r="A69" s="14"/>
+      <c r="A69" s="16"/>
       <c r="B69" s="8" t="s">
         <v>115</v>
       </c>
@@ -1871,7 +1871,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="30">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="16" t="s">
         <v>126</v>
       </c>
       <c r="B75" s="8" t="s">
@@ -1879,13 +1879,20 @@
       </c>
     </row>
     <row r="76" spans="1:2" ht="90">
-      <c r="A76" s="14"/>
+      <c r="A76" s="16"/>
       <c r="B76" s="8" t="s">
         <v>127</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A61:A62"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="A50:A52"/>
@@ -1894,13 +1901,6 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A61:A62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="QuickStart!A2" display="Up"/>
@@ -1936,10 +1936,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="15"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -1951,10 +1951,10 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Definitions/k_Definitions_Groovy.xlsx
+++ b/Definitions/k_Definitions_Groovy.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="149">
   <si>
     <t>Topics</t>
   </si>
@@ -682,6 +682,24 @@
   </si>
   <si>
     <t>Methodi with return type</t>
+  </si>
+  <si>
+    <t>Groovy Language Testing Guide</t>
+  </si>
+  <si>
+    <t>http://www.groovy-lang.org/testing.html</t>
+  </si>
+  <si>
+    <t>Using Spock to test Groovy and Java applications</t>
+  </si>
+  <si>
+    <t>https://zeroturnaround.com/rebellabs/using-spock-to-test-groovy-and-java-applications/</t>
+  </si>
+  <si>
+    <t>Spock Data Driven Testing</t>
+  </si>
+  <si>
+    <t>http://spockframework.org/spock/docs/1.0/data_driven_testing.html</t>
   </si>
 </sst>
 </file>
@@ -823,7 +841,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -843,6 +861,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1181,8 +1205,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.125" customWidth="1"/>
-    <col min="2" max="2" width="100.375" customWidth="1"/>
+    <col min="1" max="1" width="45.140625" customWidth="1"/>
+    <col min="2" max="2" width="100.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1221,17 +1245,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="58.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="102.375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="58.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="102.42578125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
@@ -1243,10 +1267,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -1288,12 +1312,20 @@
         <v>133</v>
       </c>
     </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="17"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="9" t="s">
@@ -1309,6 +1341,22 @@
       </c>
       <c r="B12" s="6" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1324,9 +1372,12 @@
     <hyperlink ref="B11" r:id="rId3"/>
     <hyperlink ref="B7" r:id="rId4"/>
     <hyperlink ref="B12" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId6"/>
+    <hyperlink ref="B13" r:id="rId7"/>
+    <hyperlink ref="B14" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -1341,8 +1392,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="56.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="107.25" customWidth="1"/>
+    <col min="1" max="1" width="56.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="107.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
@@ -1354,10 +1405,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="12" t="s">
@@ -1369,12 +1420,12 @@
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="15"/>
-    </row>
-    <row r="9" spans="1:2" ht="60">
+      <c r="B8" s="17"/>
+    </row>
+    <row r="9" spans="1:2" ht="75">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -1414,7 +1465,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="30">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
@@ -1462,7 +1513,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="60">
+    <row r="20" spans="1:2" ht="75">
       <c r="A20" s="5" t="s">
         <v>35</v>
       </c>
@@ -1487,7 +1538,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="90">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1495,13 +1546,13 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="16"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -1509,7 +1560,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="16"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="5" t="s">
         <v>45</v>
       </c>
@@ -1539,7 +1590,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="90">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -1547,13 +1598,13 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="16"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="45">
-      <c r="A32" s="16"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="5" t="s">
         <v>56</v>
       </c>
@@ -1607,7 +1658,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -1615,13 +1666,13 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="45">
-      <c r="A40" s="16"/>
+      <c r="A40" s="18"/>
       <c r="B40" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="16"/>
+      <c r="A41" s="18"/>
       <c r="B41" s="5" t="s">
         <v>70</v>
       </c>
@@ -1650,7 +1701,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="30">
+    <row r="45" spans="1:2" ht="45">
       <c r="A45" s="5" t="s">
         <v>77</v>
       </c>
@@ -1659,7 +1710,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="30">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="18" t="s">
         <v>79</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -1667,13 +1718,13 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="45">
-      <c r="A47" s="16"/>
+      <c r="A47" s="18"/>
       <c r="B47" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="30">
-      <c r="A48" s="16"/>
+      <c r="A48" s="18"/>
       <c r="B48" s="5" t="s">
         <v>82</v>
       </c>
@@ -1687,7 +1738,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="60">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="18" t="s">
         <v>85</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -1695,13 +1746,13 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="16"/>
+      <c r="A51" s="18"/>
       <c r="B51" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="16"/>
+      <c r="A52" s="18"/>
       <c r="B52" s="5" t="s">
         <v>88</v>
       </c>
@@ -1715,7 +1766,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="135">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="18" t="s">
         <v>91</v>
       </c>
       <c r="B54" s="8" t="s">
@@ -1723,13 +1774,13 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="135">
-      <c r="A55" s="16"/>
+      <c r="A55" s="18"/>
       <c r="B55" s="8" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="45">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="18" t="s">
         <v>94</v>
       </c>
       <c r="B56" s="8" t="s">
@@ -1737,13 +1788,13 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="210">
-      <c r="A57" s="16"/>
+      <c r="A57" s="18"/>
       <c r="B57" s="8" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="18" t="s">
         <v>97</v>
       </c>
       <c r="B58" s="8" t="s">
@@ -1751,7 +1802,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="75">
-      <c r="A59" s="16"/>
+      <c r="A59" s="18"/>
       <c r="B59" s="8" t="s">
         <v>99</v>
       </c>
@@ -1765,7 +1816,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="90">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="18" t="s">
         <v>101</v>
       </c>
       <c r="B61" s="8" t="s">
@@ -1773,7 +1824,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="90">
-      <c r="A62" s="16"/>
+      <c r="A62" s="18"/>
       <c r="B62" s="8" t="s">
         <v>103</v>
       </c>
@@ -1795,7 +1846,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="30">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="18" t="s">
         <v>108</v>
       </c>
       <c r="B65" s="8" t="s">
@@ -1803,7 +1854,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" ht="60">
-      <c r="A66" s="16"/>
+      <c r="A66" s="18"/>
       <c r="B66" s="8" t="s">
         <v>110</v>
       </c>
@@ -1817,7 +1868,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="18" t="s">
         <v>113</v>
       </c>
       <c r="B68" s="8" t="s">
@@ -1825,7 +1876,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="60">
-      <c r="A69" s="16"/>
+      <c r="A69" s="18"/>
       <c r="B69" s="8" t="s">
         <v>115</v>
       </c>
@@ -1871,7 +1922,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="30">
-      <c r="A75" s="16" t="s">
+      <c r="A75" s="18" t="s">
         <v>126</v>
       </c>
       <c r="B75" s="8" t="s">
@@ -1879,20 +1930,13 @@
       </c>
     </row>
     <row r="76" spans="1:2" ht="90">
-      <c r="A76" s="16"/>
+      <c r="A76" s="18"/>
       <c r="B76" s="8" t="s">
         <v>127</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A61:A62"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="A50:A52"/>
@@ -1901,6 +1945,13 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A61:A62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="QuickStart!A2" display="Up"/>
@@ -1923,8 +1974,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="54.25" customWidth="1"/>
-    <col min="2" max="2" width="109.75" customWidth="1"/>
+    <col min="1" max="1" width="54.28515625" customWidth="1"/>
+    <col min="2" max="2" width="109.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
@@ -1936,10 +1987,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -1951,10 +2002,10 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Definitions/k_Definitions_Groovy.xlsx
+++ b/Definitions/k_Definitions_Groovy.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
     <sheet name="Materials" sheetId="3" r:id="rId2"/>
-    <sheet name="QuickStart" sheetId="2" r:id="rId3"/>
+    <sheet name="Groovy" sheetId="2" r:id="rId3"/>
     <sheet name="Spock" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -17,15 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="150">
   <si>
     <t>Topics</t>
   </si>
   <si>
     <t>Up</t>
-  </si>
-  <si>
-    <t>QuickStart</t>
   </si>
   <si>
     <t>Tutorials point</t>
@@ -681,9 +678,6 @@
 un comment short cut: Ctrl + Shift + /</t>
   </si>
   <si>
-    <t>Methodi with return type</t>
-  </si>
-  <si>
     <t>Groovy Language Testing Guide</t>
   </si>
   <si>
@@ -700,6 +694,15 @@
   </si>
   <si>
     <t>http://spockframework.org/spock/docs/1.0/data_driven_testing.html</t>
+  </si>
+  <si>
+    <t>https://www.timroes.de/2015/06/27/groovy-tutorial-for-java-developers/</t>
+  </si>
+  <si>
+    <t>Groovy Quick Start</t>
+  </si>
+  <si>
+    <t>Method with return type</t>
   </si>
 </sst>
 </file>
@@ -841,7 +844,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -861,6 +864,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1219,23 +1225,23 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" location="Topics!A2" display="Up"/>
-    <hyperlink ref="A2" location="QuickStart!A1" display="QuickStart"/>
+    <hyperlink ref="A2" location="Groovy!A1" display="Groovy"/>
     <hyperlink ref="A3" location="Materials!A1" display="Materials"/>
     <hyperlink ref="A4" location="Spock!A1" display="Spock"/>
   </hyperlinks>
@@ -1245,11 +1251,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1267,117 +1273,126 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="17"/>
+      <c r="A2" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="18"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
+        <v>148</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>11</v>
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="10" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1"/>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B10" s="17"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="9" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1"/>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A11" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>131</v>
-      </c>
+      <c r="B11" s="18"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="14" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B15" s="6" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
-    <hyperlink ref="B5" r:id="rId1"/>
-    <hyperlink ref="B6" r:id="rId2"/>
-    <hyperlink ref="B11" r:id="rId3"/>
-    <hyperlink ref="B7" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId2"/>
+    <hyperlink ref="B13" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId4"/>
     <hyperlink ref="B12" r:id="rId5"/>
-    <hyperlink ref="B8" r:id="rId6"/>
-    <hyperlink ref="B13" r:id="rId7"/>
-    <hyperlink ref="B14" r:id="rId8"/>
+    <hyperlink ref="B9" r:id="rId6"/>
+    <hyperlink ref="B14" r:id="rId7"/>
+    <hyperlink ref="B15" r:id="rId8"/>
+    <hyperlink ref="B4" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -1386,7 +1401,7 @@
   <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -1405,534 +1420,534 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="17"/>
+      <c r="A2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="18"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A8" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="17"/>
+      <c r="A8" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="18"/>
     </row>
     <row r="9" spans="1:2" ht="75">
       <c r="A9" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="120">
       <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
         <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
         <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
         <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30">
       <c r="A14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
         <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45">
       <c r="A16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="90">
       <c r="A17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
         <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
         <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="75">
       <c r="A20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
       <c r="A21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="5" t="s">
+    </row>
+    <row r="23" spans="1:2" ht="90">
+      <c r="A23" s="19" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="90">
-      <c r="A23" s="18" t="s">
+      <c r="B23" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="5" t="s">
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="19"/>
+      <c r="B24" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="19" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="18" t="s">
+      <c r="B25" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="5" t="s">
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="19"/>
+      <c r="B26" s="5" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
       <c r="A27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
       <c r="A29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="90">
+      <c r="A30" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="90">
-      <c r="A30" s="18" t="s">
+      <c r="B30" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="5" t="s">
+    </row>
+    <row r="31" spans="1:2" ht="45">
+      <c r="A31" s="19"/>
+      <c r="B31" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="18"/>
-      <c r="B31" s="5" t="s">
+    <row r="32" spans="1:2" ht="45">
+      <c r="A32" s="19"/>
+      <c r="B32" s="5" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="45">
-      <c r="A32" s="18"/>
-      <c r="B32" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
       <c r="A33" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
       <c r="A34" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="120">
       <c r="A35" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="60">
       <c r="A37" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="60">
       <c r="A38" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30">
+      <c r="A39" s="19" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="18" t="s">
+      <c r="B39" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="5" t="s">
+    </row>
+    <row r="40" spans="1:2" ht="45">
+      <c r="A40" s="19"/>
+      <c r="B40" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="45">
-      <c r="A40" s="18"/>
-      <c r="B40" s="5" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="19"/>
+      <c r="B41" s="5" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="18"/>
-      <c r="B41" s="5" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="60">
       <c r="A42" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="105">
       <c r="A43" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="45">
       <c r="A44" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="45">
       <c r="A45" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B45" s="5" t="s">
+    </row>
+    <row r="46" spans="1:2" ht="30">
+      <c r="A46" s="19" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="30">
-      <c r="A46" s="18" t="s">
+      <c r="B46" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B46" s="5" t="s">
+    </row>
+    <row r="47" spans="1:2" ht="45">
+      <c r="A47" s="19"/>
+      <c r="B47" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="45">
-      <c r="A47" s="18"/>
-      <c r="B47" s="5" t="s">
+    <row r="48" spans="1:2" ht="30">
+      <c r="A48" s="19"/>
+      <c r="B48" s="5" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="30">
-      <c r="A48" s="18"/>
-      <c r="B48" s="5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="105">
       <c r="A49" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B49" s="5" t="s">
+    </row>
+    <row r="50" spans="1:2" ht="60">
+      <c r="A50" s="19" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="60">
-      <c r="A50" s="18" t="s">
+      <c r="B50" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B50" s="5" t="s">
+    </row>
+    <row r="51" spans="1:2" ht="45">
+      <c r="A51" s="19"/>
+      <c r="B51" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="18"/>
-      <c r="B51" s="5" t="s">
+    <row r="52" spans="1:2" ht="45">
+      <c r="A52" s="19"/>
+      <c r="B52" s="5" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="18"/>
-      <c r="B52" s="5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="60">
       <c r="A53" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B53" s="5" t="s">
+    </row>
+    <row r="54" spans="1:2" ht="135">
+      <c r="A54" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="135">
-      <c r="A54" s="18" t="s">
+      <c r="B54" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="8" t="s">
+    </row>
+    <row r="55" spans="1:2" ht="135">
+      <c r="A55" s="19"/>
+      <c r="B55" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="135">
-      <c r="A55" s="18"/>
-      <c r="B55" s="8" t="s">
+    <row r="56" spans="1:2" ht="45">
+      <c r="A56" s="19" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="45">
-      <c r="A56" s="18" t="s">
+      <c r="B56" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B56" s="8" t="s">
+    </row>
+    <row r="57" spans="1:2" ht="210">
+      <c r="A57" s="19"/>
+      <c r="B57" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="210">
-      <c r="A57" s="18"/>
-      <c r="B57" s="8" t="s">
+    <row r="58" spans="1:2" ht="45">
+      <c r="A58" s="19" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="18" t="s">
+      <c r="B58" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B58" s="8" t="s">
+    </row>
+    <row r="59" spans="1:2" ht="75">
+      <c r="A59" s="19"/>
+      <c r="B59" s="8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="75">
-      <c r="A59" s="18"/>
-      <c r="B59" s="8" t="s">
+    <row r="60" spans="1:2" ht="90">
+      <c r="A60" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="90">
-      <c r="A60" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="B60" s="8" t="s">
+    <row r="61" spans="1:2" ht="90">
+      <c r="A61" s="19" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" ht="90">
-      <c r="A61" s="18" t="s">
+      <c r="B61" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B61" s="8" t="s">
+    </row>
+    <row r="62" spans="1:2" ht="90">
+      <c r="A62" s="19"/>
+      <c r="B62" s="8" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="90">
-      <c r="A62" s="18"/>
-      <c r="B62" s="8" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="30">
       <c r="A63" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B63" s="8" t="s">
         <v>104</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="45">
       <c r="A64" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="30">
+      <c r="A65" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B64" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="30">
-      <c r="A65" s="18" t="s">
+      <c r="B65" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B65" s="8" t="s">
+    </row>
+    <row r="66" spans="1:2" ht="60">
+      <c r="A66" s="19"/>
+      <c r="B66" s="8" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="60">
-      <c r="A66" s="18"/>
-      <c r="B66" s="8" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="90">
       <c r="A67" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B67" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B67" s="8" t="s">
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="19" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="18" t="s">
+      <c r="B68" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B68" s="8" t="s">
+    </row>
+    <row r="69" spans="1:2" ht="60">
+      <c r="A69" s="19"/>
+      <c r="B69" s="8" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="60">
-      <c r="A69" s="18"/>
-      <c r="B69" s="8" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="135">
       <c r="A70" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B70" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="60">
       <c r="A71" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B71" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="60">
       <c r="A72" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B72" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="75">
       <c r="A73" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B73" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="90">
       <c r="A74" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B74" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B74" s="8" t="s">
+    </row>
+    <row r="75" spans="1:2" ht="30">
+      <c r="A75" s="19" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" ht="30">
-      <c r="A75" s="18" t="s">
+      <c r="B75" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="90">
+      <c r="A76" s="19"/>
+      <c r="B76" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="90">
-      <c r="A76" s="18"/>
-      <c r="B76" s="8" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1954,7 +1969,7 @@
     <mergeCell ref="A61:A62"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B1" location="QuickStart!A2" display="Up"/>
+    <hyperlink ref="B1" location="Groovy!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
     <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
@@ -1969,7 +1984,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1987,25 +2002,25 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="17"/>
+      <c r="A2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="18"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="17"/>
+      <c r="A7" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Definitions/k_Definitions_Groovy.xlsx
+++ b/Definitions/k_Definitions_Groovy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="153">
   <si>
     <t>Topics</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>Tutorials point</t>
-  </si>
-  <si>
-    <t>Groovy Fundamentals</t>
   </si>
   <si>
     <t>Pluralsight - video name</t>
@@ -80,9 +77,6 @@
     <t>groovysh</t>
   </si>
   <si>
-    <t>Go to bin and type this command then you will enter into groovy shell</t>
-  </si>
-  <si>
     <t>To exit Groovy shell</t>
   </si>
   <si>
@@ -109,34 +103,6 @@
     <t>Where does Groovy Fit</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1. Web application development
-2. Building DSL (Domain Specific Languages). Means can be used like Apache Camel
-3. Writing test cases in more user readable format so that we can show them to business team. Popular Groovy based testing framework in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">SPOCK. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-4. Light weight and script like syntax and tight integration with Java API make it an excellent choice for writing small scripts in a JVM environment</t>
-    </r>
-  </si>
-  <si>
     <t>Groovy official web site</t>
   </si>
   <si>
@@ -181,14 +147,6 @@
   </si>
   <si>
     <t>First Groovy program</t>
-  </si>
-  <si>
-    <t>1. Open any folder like E:\practiceProjects\Groovy
-2. create Sample.groovy file
-3. write println "Welcome to Groovy" in that file
-4. open command prompt and go to location where Sample.groovy file is located
-5. run groovyc Sample.groovy -&gt; Now Sample.class file will be generated
-6. run groovy Sample -&gt; we can see Welcome to Groovy on command prompt</t>
   </si>
   <si>
     <t>print today's date</t>
@@ -703,6 +661,80 @@
   </si>
   <si>
     <t>Method with return type</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Web application development
+2. Building DSL (Domain Specific Languages). Means can be used like Apache Camel
+3. Writing test cases in more user readable format so that we can show them to business team. Popular Groovy based testing framework is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SPOCK. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4. Light weight and script like syntax and tight integration with Java API make it an excellent choice for writing small scripts in a JVM environment</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Open any folder like E:\practiceProjects\Groovy
+2. create Sample.groovy file
+3. write println "Welcome to Groovy" in that file
+4. open command prompt and go to location where Sample.groovy file is located
+5. run groovyc Sample.groovy -&gt; Now Sample.class file will be generated
+6. run </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>groovy Sample</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt; we can see Welcome to Groovy on command prompt</t>
+    </r>
+  </si>
+  <si>
+    <t>Groovy Fundamentals [Course]</t>
+  </si>
+  <si>
+    <t>images/zc-Groovy</t>
+  </si>
+  <si>
+    <t>Polyglot programming languages pyramid</t>
+  </si>
+  <si>
+    <t>refer images/zc-Groovy/1-polyglot-programming-languages.jpg</t>
+  </si>
+  <si>
+    <t>Go to bin and type this command then you will enter into groovy shell which is REPL to quickly work with groovy syntax etc</t>
   </si>
 </sst>
 </file>
@@ -844,7 +876,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -864,6 +896,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1206,7 +1244,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1225,17 +1263,20 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1253,9 +1294,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1273,25 +1314,25 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="18"/>
+      <c r="A2" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="20"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
         <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1299,78 +1340,78 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="14" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="11" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A11" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="B11" s="18"/>
+      <c r="A11" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="20"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="14" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="15" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1390,19 +1431,20 @@
     <hyperlink ref="B14" r:id="rId7"/>
     <hyperlink ref="B15" r:id="rId8"/>
     <hyperlink ref="B4" r:id="rId9"/>
+    <hyperlink ref="B3" r:id="rId10" display="https://app.pluralsight.com/library/courses/groovy-fundamentals"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1420,534 +1462,542 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="18"/>
+      <c r="A2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="20"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="20"/>
+    </row>
+    <row r="9" spans="1:2" ht="75">
+      <c r="A9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="18"/>
-    </row>
-    <row r="9" spans="1:2" ht="75">
-      <c r="A9" s="5" t="s">
+      <c r="B9" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="120">
+      <c r="A10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="120">
-      <c r="A10" s="5" t="s">
+      <c r="B10" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="5" t="s">
+      <c r="B12" t="s">
         <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="14" spans="1:2" ht="45">
+      <c r="A14" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45">
       <c r="A16" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="90">
       <c r="A17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="75">
       <c r="A20" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
       <c r="A21" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="90">
+      <c r="A23" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="21"/>
+      <c r="B24" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="90">
-      <c r="A23" s="19" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="21"/>
+      <c r="B26" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="19"/>
-      <c r="B24" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="19"/>
-      <c r="B26" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
       <c r="A27" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
       <c r="A29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="90">
+      <c r="A30" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="45">
+      <c r="A31" s="21"/>
+      <c r="B31" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="45">
+      <c r="A32" s="21"/>
+      <c r="B32" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="90">
-      <c r="A30" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="19"/>
-      <c r="B31" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="45">
-      <c r="A32" s="19"/>
-      <c r="B32" s="5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
       <c r="A33" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
       <c r="A34" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="120">
       <c r="A35" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="60">
       <c r="A37" s="13" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="60">
       <c r="A38" s="13" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30">
+      <c r="A39" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="45">
+      <c r="A40" s="21"/>
+      <c r="B40" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="21"/>
+      <c r="B41" s="5" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="45">
-      <c r="A40" s="19"/>
-      <c r="B40" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="19"/>
-      <c r="B41" s="5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="60">
       <c r="A42" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="105">
       <c r="A43" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="45">
       <c r="A44" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="45">
       <c r="A45" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30">
+      <c r="A46" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="45">
+      <c r="A47" s="21"/>
+      <c r="B47" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B45" s="5" t="s">
+    </row>
+    <row r="48" spans="1:2" ht="30">
+      <c r="A48" s="21"/>
+      <c r="B48" s="5" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="30">
-      <c r="A46" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="45">
-      <c r="A47" s="19"/>
-      <c r="B47" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="30">
-      <c r="A48" s="19"/>
-      <c r="B48" s="5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="105">
       <c r="A49" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="60">
+      <c r="A50" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="45">
+      <c r="A51" s="21"/>
+      <c r="B51" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B49" s="5" t="s">
+    </row>
+    <row r="52" spans="1:2" ht="45">
+      <c r="A52" s="21"/>
+      <c r="B52" s="5" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="60">
-      <c r="A50" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="19"/>
-      <c r="B51" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="19"/>
-      <c r="B52" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="60">
       <c r="A53" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="135">
+      <c r="A54" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="135">
+      <c r="A55" s="21"/>
+      <c r="B55" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B53" s="5" t="s">
+    </row>
+    <row r="56" spans="1:2" ht="45">
+      <c r="A56" s="21" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="135">
-      <c r="A54" s="19" t="s">
+      <c r="B56" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B54" s="8" t="s">
+    </row>
+    <row r="57" spans="1:2" ht="210">
+      <c r="A57" s="21"/>
+      <c r="B57" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="135">
-      <c r="A55" s="19"/>
-      <c r="B55" s="8" t="s">
+    <row r="58" spans="1:2" ht="45">
+      <c r="A58" s="21" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="45">
-      <c r="A56" s="19" t="s">
+      <c r="B58" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B56" s="8" t="s">
+    </row>
+    <row r="59" spans="1:2" ht="75">
+      <c r="A59" s="21"/>
+      <c r="B59" s="8" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="210">
-      <c r="A57" s="19"/>
-      <c r="B57" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="75">
-      <c r="A59" s="19"/>
-      <c r="B59" s="8" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="90">
       <c r="A60" s="16" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="90">
-      <c r="A61" s="19" t="s">
-        <v>100</v>
+      <c r="A61" s="21" t="s">
+        <v>96</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="90">
-      <c r="A62" s="19"/>
+      <c r="A62" s="21"/>
       <c r="B62" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="30">
       <c r="A63" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="45">
       <c r="A64" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B64" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="30">
+      <c r="A65" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="60">
+      <c r="A66" s="21"/>
+      <c r="B66" s="8" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="30">
-      <c r="A65" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="60">
-      <c r="A66" s="19"/>
-      <c r="B66" s="8" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="90">
       <c r="A67" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="60">
+      <c r="A69" s="21"/>
+      <c r="B69" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="60">
-      <c r="A69" s="19"/>
-      <c r="B69" s="8" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="135">
       <c r="A70" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="60">
       <c r="A71" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="60">
       <c r="A72" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="75">
       <c r="A73" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="90">
       <c r="A74" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="30">
+      <c r="A75" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B75" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B74" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="30">
-      <c r="A75" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>127</v>
-      </c>
     </row>
     <row r="76" spans="1:2" ht="90">
-      <c r="A76" s="19"/>
+      <c r="A76" s="21"/>
       <c r="B76" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2002,25 +2052,25 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="18"/>
+      <c r="A2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="20"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="18"/>
+      <c r="A7" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Definitions/k_Definitions_Groovy.xlsx
+++ b/Definitions/k_Definitions_Groovy.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="181">
   <si>
     <t>Topics</t>
   </si>
@@ -735,6 +735,119 @@
   </si>
   <si>
     <t>Go to bin and type this command then you will enter into groovy shell which is REPL to quickly work with groovy syntax etc</t>
+  </si>
+  <si>
+    <t>Reading Xml</t>
+  </si>
+  <si>
+    <t>1. DOMCategory
+2. XmlParser - Eagerly loaded means entrire document will be loaded to memory before it's read. It will lead to better performance but uses high memory. Not recommended for large files
+3. XmlSlurper - lazy loaded</t>
+  </si>
+  <si>
+    <t>Writing Xml</t>
+  </si>
+  <si>
+    <t>1. MarkupBuilder
+2. StreamingMarkupBuilder</t>
+  </si>
+  <si>
+    <t>Grape</t>
+  </si>
+  <si>
+    <t>Dependency management system built into Groovy
+Grape is build on top of Ivy</t>
+  </si>
+  <si>
+    <t>What is Ivy</t>
+  </si>
+  <si>
+    <t>Dependency management system that is full compaitable with maven repositories. 
+Ivy uses maven coordinates for dependency resolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Grapes(
+    @Grab(group='joda-time', module='joda-time', version='2.9.7')
+)</t>
+  </si>
+  <si>
+    <t>Grape we can find in maven repository (sample grape dependency we can add to .groovy file for solving joda-time dependency)</t>
+  </si>
+  <si>
+    <t>If we are adding above in .groovy file we need to Ivy configured in IDE to download dependency</t>
+  </si>
+  <si>
+    <t>Unit testing support in Groovy</t>
+  </si>
+  <si>
+    <t>1. Junit is built in into the Groovy so we don’t need to add Junit as external dependency
+2. Mocking API are in build in Groovy. 
+3. Advanced testing frameworks are also available if we need. Some examples are Spock, Gmock</t>
+  </si>
+  <si>
+    <t>1. All fields in Groovy are public by default unless otherwise specify them as private.
+2. If we declare private variable, Groovy will provide getters and setters for that variable internally so we don’t need write them on our own</t>
+  </si>
+  <si>
+    <t>Writing test cases</t>
+  </si>
+  <si>
+    <t>1. Write a test class that extends groovy.util.GroovyTestCase
+2. define a method with prefix "test" otherwise method will not be identified to be executed as test case
+3. return type of method should be void otherwise method will not be identified to be executed as test case</t>
+  </si>
+  <si>
+    <t>dump() method</t>
+  </si>
+  <si>
+    <t>dump method will print lot of information. Like type of object on which dump method is called. Object hashcode and other information</t>
+  </si>
+  <si>
+    <t>inspect() method</t>
+  </si>
+  <si>
+    <t>returns the String that prints the contents of the object.Generally we have to override inspect method. If don’t override then inspect method will refer toString to return the result</t>
+  </si>
+  <si>
+    <t>null in if condition</t>
+  </si>
+  <si>
+    <t>If we use null in if condition -&gt; that will be evaluated as false</t>
+  </si>
+  <si>
+    <t>if(null){
+            println "inside if"
+        }else if(!null){
+            println "inside else"
+        }</t>
+  </si>
+  <si>
+    <t>output: inside else</t>
+  </si>
+  <si>
+    <t>If we want to add additional functionalities to existing java/groovy classes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We have to use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>categories</t>
+    </r>
+  </si>
+  <si>
+    <t>no return needed</t>
+  </si>
+  <si>
+    <t>Groovy by default will return the last statement from method to caller so its not mandatory to add return statement to last line of method</t>
   </si>
 </sst>
 </file>
@@ -876,7 +989,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -896,6 +1009,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1314,10 +1433,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="22"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -1368,7 +1487,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>137</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1377,10 +1496,10 @@
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="11" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="22"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="11" t="s">
@@ -1399,7 +1518,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>139</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -1407,7 +1526,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>141</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -1440,11 +1559,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1462,10 +1581,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="22"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="12" t="s">
@@ -1477,29 +1596,29 @@
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="22"/>
     </row>
     <row r="9" spans="1:2" ht="75">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="120">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -1507,7 +1626,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
@@ -1515,7 +1634,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
@@ -1523,7 +1642,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="20" t="s">
         <v>152</v>
       </c>
       <c r="B14" t="s">
@@ -1531,7 +1650,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
@@ -1539,23 +1658,23 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="45">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="20" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="90">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="20" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B18" t="s">
@@ -1563,7 +1682,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="20" t="s">
         <v>29</v>
       </c>
       <c r="B19" t="s">
@@ -1571,151 +1690,151 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="75">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="20" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="20" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="90">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="20" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="5" t="s">
+      <c r="A24" s="23"/>
+      <c r="B24" s="20" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="20" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="21"/>
-      <c r="B26" s="5" t="s">
+      <c r="A26" s="23"/>
+      <c r="B26" s="20" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="20" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="20" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="20" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="90">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="20" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="21"/>
-      <c r="B31" s="5" t="s">
+      <c r="A31" s="23"/>
+      <c r="B31" s="20" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="45">
-      <c r="A32" s="21"/>
-      <c r="B32" s="5" t="s">
+      <c r="A32" s="23"/>
+      <c r="B32" s="20" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="20" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="120">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="20" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="20" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="60">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="20" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="20" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="23" t="s">
         <v>62</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -1723,13 +1842,13 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="45">
-      <c r="A40" s="21"/>
+      <c r="A40" s="23"/>
       <c r="B40" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="21"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="5" t="s">
         <v>65</v>
       </c>
@@ -1767,7 +1886,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="30">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="23" t="s">
         <v>74</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -1775,13 +1894,13 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="45">
-      <c r="A47" s="21"/>
+      <c r="A47" s="23"/>
       <c r="B47" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="30">
-      <c r="A48" s="21"/>
+      <c r="A48" s="23"/>
       <c r="B48" s="5" t="s">
         <v>77</v>
       </c>
@@ -1795,7 +1914,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="60">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="23" t="s">
         <v>80</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -1803,13 +1922,13 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="21"/>
+      <c r="A51" s="23"/>
       <c r="B51" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="21"/>
+      <c r="A52" s="23"/>
       <c r="B52" s="5" t="s">
         <v>83</v>
       </c>
@@ -1823,7 +1942,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="135">
-      <c r="A54" s="21" t="s">
+      <c r="A54" s="23" t="s">
         <v>86</v>
       </c>
       <c r="B54" s="8" t="s">
@@ -1831,13 +1950,13 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="135">
-      <c r="A55" s="21"/>
+      <c r="A55" s="23"/>
       <c r="B55" s="8" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="45">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="23" t="s">
         <v>89</v>
       </c>
       <c r="B56" s="8" t="s">
@@ -1845,13 +1964,13 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="210">
-      <c r="A57" s="21"/>
+      <c r="A57" s="23"/>
       <c r="B57" s="8" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="23" t="s">
         <v>92</v>
       </c>
       <c r="B58" s="8" t="s">
@@ -1859,13 +1978,13 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="75">
-      <c r="A59" s="21"/>
+      <c r="A59" s="23"/>
       <c r="B59" s="8" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="90">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="15" t="s">
         <v>145</v>
       </c>
       <c r="B60" s="8" t="s">
@@ -1873,7 +1992,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="90">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="23" t="s">
         <v>96</v>
       </c>
       <c r="B61" s="8" t="s">
@@ -1881,7 +2000,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="90">
-      <c r="A62" s="21"/>
+      <c r="A62" s="23"/>
       <c r="B62" s="8" t="s">
         <v>98</v>
       </c>
@@ -1903,7 +2022,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="30">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="23" t="s">
         <v>103</v>
       </c>
       <c r="B65" s="8" t="s">
@@ -1911,7 +2030,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" ht="60">
-      <c r="A66" s="21"/>
+      <c r="A66" s="23"/>
       <c r="B66" s="8" t="s">
         <v>105</v>
       </c>
@@ -1925,7 +2044,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="21" t="s">
+      <c r="A68" s="23" t="s">
         <v>108</v>
       </c>
       <c r="B68" s="8" t="s">
@@ -1933,7 +2052,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="60">
-      <c r="A69" s="21"/>
+      <c r="A69" s="23"/>
       <c r="B69" s="8" t="s">
         <v>110</v>
       </c>
@@ -1979,7 +2098,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="30">
-      <c r="A75" s="21" t="s">
+      <c r="A75" s="23" t="s">
         <v>121</v>
       </c>
       <c r="B75" s="8" t="s">
@@ -1987,36 +2106,159 @@
       </c>
     </row>
     <row r="76" spans="1:2" ht="90">
-      <c r="A76" s="21"/>
+      <c r="A76" s="23"/>
       <c r="B76" s="8" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="18" t="s">
+      <c r="A77" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="B77" s="18" t="s">
+      <c r="B77" s="17" t="s">
         <v>151</v>
       </c>
     </row>
+    <row r="78" spans="1:2" ht="60">
+      <c r="A78" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="30">
+      <c r="A79" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="30">
+      <c r="A80" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="30">
+      <c r="A81" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="45">
+      <c r="A82" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="23"/>
+      <c r="B83" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="45">
+      <c r="A84" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="30" customHeight="1">
+      <c r="A85" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B85" s="23"/>
+    </row>
+    <row r="86" spans="1:2" ht="45">
+      <c r="A86" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="30">
+      <c r="A87" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="30">
+      <c r="A88" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="75">
+      <c r="A90" s="23"/>
+      <c r="B90" s="20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="23"/>
+      <c r="B91" s="20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="30">
+      <c r="A92" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="B92" s="20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="30">
+      <c r="A93" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="B93" s="20" t="s">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A30:A32"/>
+  <mergeCells count="18">
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A89:A91"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A75:A76"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A75:A76"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Groovy!A2" display="Up"/>
@@ -2052,10 +2294,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="22"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -2067,10 +2309,10 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Definitions/k_Definitions_Groovy.xlsx
+++ b/Definitions/k_Definitions_Groovy.xlsx
@@ -1562,8 +1562,8 @@
   <dimension ref="A1:B93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A94" sqref="A94"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1602,23 +1602,23 @@
       <c r="B8" s="22"/>
     </row>
     <row r="9" spans="1:2" ht="75">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="120">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -1626,7 +1626,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
@@ -1731,37 +1731,37 @@
       <c r="A25" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="19" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="23"/>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="19" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="19" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="19" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1769,67 +1769,67 @@
       <c r="A30" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="19" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
       <c r="A31" s="23"/>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="19" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="45">
       <c r="A32" s="23"/>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="19" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="19" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="120">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="19" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="60">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="19" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="19" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2112,42 +2112,42 @@
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="17" t="s">
+      <c r="A77" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="B77" s="17" t="s">
+      <c r="B77" s="16" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="60">
-      <c r="A78" s="18" t="s">
+      <c r="A78" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="B78" s="18" t="s">
+      <c r="B78" s="17" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="30">
-      <c r="A79" s="18" t="s">
+      <c r="A79" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="B79" s="18" t="s">
+      <c r="B79" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="30">
-      <c r="A80" s="19" t="s">
+      <c r="A80" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="B80" s="19" t="s">
+      <c r="B80" s="18" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="30">
-      <c r="A81" s="19" t="s">
+      <c r="A81" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="B81" s="19" t="s">
+      <c r="B81" s="18" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2155,21 +2155,21 @@
       <c r="A82" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="19" t="s">
+      <c r="B82" s="18" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="23"/>
-      <c r="B83" s="19" t="s">
+      <c r="B83" s="18" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="45">
-      <c r="A84" s="20" t="s">
+      <c r="A84" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="B84" s="20" t="s">
+      <c r="B84" s="19" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2180,26 +2180,26 @@
       <c r="B85" s="23"/>
     </row>
     <row r="86" spans="1:2" ht="45">
-      <c r="A86" s="20" t="s">
+      <c r="A86" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="B86" s="20" t="s">
+      <c r="B86" s="19" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="30">
-      <c r="A87" s="20" t="s">
+      <c r="A87" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="B87" s="20" t="s">
+      <c r="B87" s="19" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="30">
-      <c r="A88" s="20" t="s">
+      <c r="A88" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B88" s="20" t="s">
+      <c r="B88" s="19" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2207,40 +2207,42 @@
       <c r="A89" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="B89" s="20" t="s">
+      <c r="B89" s="19" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="75">
       <c r="A90" s="23"/>
-      <c r="B90" s="20" t="s">
+      <c r="B90" s="19" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="23"/>
-      <c r="B91" s="20" t="s">
+      <c r="B91" s="19" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="30">
-      <c r="A92" s="20" t="s">
+      <c r="A92" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="B92" s="20" t="s">
+      <c r="B92" s="19" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="30">
-      <c r="A93" s="20" t="s">
+      <c r="A93" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="B93" s="20" t="s">
+      <c r="B93" s="19" t="s">
         <v>180</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A75:A76"/>
     <mergeCell ref="A85:B85"/>
     <mergeCell ref="A89:A91"/>
     <mergeCell ref="A2:B2"/>
@@ -2257,8 +2259,6 @@
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="A50:A52"/>
     <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A75:A76"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Groovy!A2" display="Up"/>

--- a/Definitions/k_Definitions_Groovy.xlsx
+++ b/Definitions/k_Definitions_Groovy.xlsx
@@ -92,9 +92,6 @@
 4. Bring extra features to JVM such as functional programming, meta programming, excellent support to JSON and XML</t>
   </si>
   <si>
-    <t>Why Grrovy</t>
-  </si>
-  <si>
     <t>1. Groovy is very accessable to Java developers
 2. We can use existing java libraries
 3. Groovy extends java.lang.Object</t>
@@ -257,9 +254,6 @@
     <t>def employeename
 def student1
 def student_name</t>
-  </si>
-  <si>
-    <t>where def is a keyword used in Groovy to define an identifier</t>
   </si>
   <si>
     <t>Literals</t>
@@ -848,6 +842,12 @@
   </si>
   <si>
     <t>Groovy by default will return the last statement from method to caller so its not mandatory to add return statement to last line of method</t>
+  </si>
+  <si>
+    <t>Why Groovy</t>
+  </si>
+  <si>
+    <t>def is a keyword used in Groovy to define an identifier</t>
   </si>
 </sst>
 </file>
@@ -989,7 +989,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1009,6 +1009,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1382,10 +1385,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1395,7 +1398,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1433,25 +1436,25 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="22"/>
+      <c r="A2" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1459,12 +1462,12 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>9</v>
@@ -1472,65 +1475,65 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="11" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A11" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="B11" s="22"/>
+      <c r="A11" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="23"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1562,8 +1565,8 @@
   <dimension ref="A1:B93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23:A24"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1581,25 +1584,25 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="23"/>
     </row>
     <row r="9" spans="1:2" ht="75">
       <c r="A9" s="20" t="s">
@@ -1643,7 +1646,7 @@
     </row>
     <row r="14" spans="1:2" ht="45">
       <c r="A14" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -1658,589 +1661,591 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="45">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" s="20" t="s">
         <v>21</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="90">
       <c r="A17" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
         <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
         <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="75">
       <c r="A20" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="20" t="s">
         <v>31</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
       <c r="A21" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="20" t="s">
         <v>33</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="20" t="s">
+    </row>
+    <row r="23" spans="1:2" ht="90">
+      <c r="A23" s="24" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="90">
-      <c r="A23" s="23" t="s">
+      <c r="B23" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="24"/>
+      <c r="B24" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="20" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="23"/>
-      <c r="B24" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="23" t="s">
+      <c r="B25" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="19" t="s">
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="24"/>
+      <c r="B26" s="19" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="23"/>
-      <c r="B26" s="19" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
       <c r="A27" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="19" t="s">
         <v>42</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="19" t="s">
         <v>44</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
       <c r="A29" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="90">
+      <c r="A30" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="90">
-      <c r="A30" s="23" t="s">
+      <c r="B30" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="19" t="s">
+    </row>
+    <row r="31" spans="1:2" ht="45">
+      <c r="A31" s="24"/>
+      <c r="B31" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="23"/>
-      <c r="B31" s="19" t="s">
+    <row r="32" spans="1:2" ht="45">
+      <c r="A32" s="24"/>
+      <c r="B32" s="19" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="45">
-      <c r="A32" s="23"/>
-      <c r="B32" s="19" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
       <c r="A33" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
       <c r="A34" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="19" t="s">
         <v>54</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="120">
       <c r="A35" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="19" t="s">
         <v>56</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="19" t="s">
         <v>58</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="60">
       <c r="A37" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="60">
       <c r="A38" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B38" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30">
+      <c r="A39" s="24" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="23" t="s">
+      <c r="B39" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B39" s="5" t="s">
+    </row>
+    <row r="40" spans="1:2" ht="45">
+      <c r="A40" s="24"/>
+      <c r="B40" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="45">
-      <c r="A40" s="23"/>
-      <c r="B40" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="23"/>
-      <c r="B41" s="5" t="s">
-        <v>65</v>
+      <c r="A41" s="24"/>
+      <c r="B41" s="21" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="60">
       <c r="A42" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="105">
       <c r="A43" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="45">
       <c r="A44" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="45">
       <c r="A45" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30">
+      <c r="A46" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B46" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="30">
-      <c r="A46" s="23" t="s">
+    <row r="47" spans="1:2" ht="45">
+      <c r="A47" s="24"/>
+      <c r="B47" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="5" t="s">
+    </row>
+    <row r="48" spans="1:2" ht="30">
+      <c r="A48" s="24"/>
+      <c r="B48" s="5" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="45">
-      <c r="A47" s="23"/>
-      <c r="B47" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="30">
-      <c r="A48" s="23"/>
-      <c r="B48" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="105">
       <c r="A49" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="60">
+      <c r="A50" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B50" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="60">
-      <c r="A50" s="23" t="s">
+    <row r="51" spans="1:2" ht="45">
+      <c r="A51" s="24"/>
+      <c r="B51" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B50" s="5" t="s">
+    </row>
+    <row r="52" spans="1:2" ht="45">
+      <c r="A52" s="24"/>
+      <c r="B52" s="5" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="23"/>
-      <c r="B51" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="23"/>
-      <c r="B52" s="5" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="60">
       <c r="A53" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="135">
+      <c r="A54" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B54" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="135">
-      <c r="A54" s="23" t="s">
+    <row r="55" spans="1:2" ht="135">
+      <c r="A55" s="24"/>
+      <c r="B55" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="8" t="s">
+    </row>
+    <row r="56" spans="1:2" ht="45">
+      <c r="A56" s="24" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="135">
-      <c r="A55" s="23"/>
-      <c r="B55" s="8" t="s">
+      <c r="B56" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="45">
-      <c r="A56" s="23" t="s">
+    <row r="57" spans="1:2" ht="210">
+      <c r="A57" s="24"/>
+      <c r="B57" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B56" s="8" t="s">
+    </row>
+    <row r="58" spans="1:2" ht="45">
+      <c r="A58" s="24" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" ht="210">
-      <c r="A57" s="23"/>
-      <c r="B57" s="8" t="s">
+      <c r="B58" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="23" t="s">
+    <row r="59" spans="1:2" ht="75">
+      <c r="A59" s="24"/>
+      <c r="B59" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="75">
-      <c r="A59" s="23"/>
-      <c r="B59" s="8" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="90">
       <c r="A60" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B60" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="90">
+      <c r="A61" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="90">
-      <c r="A61" s="23" t="s">
+    <row r="62" spans="1:2" ht="90">
+      <c r="A62" s="24"/>
+      <c r="B62" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="90">
-      <c r="A62" s="23"/>
-      <c r="B62" s="8" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="30">
       <c r="A63" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="45">
       <c r="A64" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="30">
+      <c r="A65" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B65" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B64" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="30">
-      <c r="A65" s="23" t="s">
+    </row>
+    <row r="66" spans="1:2" ht="60">
+      <c r="A66" s="24"/>
+      <c r="B66" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="60">
-      <c r="A66" s="23"/>
-      <c r="B66" s="8" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="90">
       <c r="A67" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B68" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="23" t="s">
+    <row r="69" spans="1:2" ht="60">
+      <c r="A69" s="24"/>
+      <c r="B69" s="8" t="s">
         <v>108</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="60">
-      <c r="A69" s="23"/>
-      <c r="B69" s="8" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="135">
       <c r="A70" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="60">
       <c r="A71" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="60">
       <c r="A72" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="75">
       <c r="A73" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="90">
       <c r="A74" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="30">
+      <c r="A75" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B75" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="90">
+      <c r="A76" s="24"/>
+      <c r="B76" s="8" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="30">
-      <c r="A75" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="90">
-      <c r="A76" s="23"/>
-      <c r="B76" s="8" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="60">
       <c r="A78" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="30">
       <c r="A79" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="30">
       <c r="A80" s="18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="30">
       <c r="A81" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="45">
+      <c r="A82" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="B82" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="B81" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="45">
-      <c r="A82" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="B82" s="18" t="s">
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="24"/>
+      <c r="B83" s="18" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="23"/>
-      <c r="B83" s="18" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="45">
       <c r="A84" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="30" customHeight="1">
+      <c r="A85" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="B84" s="19" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="30" customHeight="1">
-      <c r="A85" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="B85" s="23"/>
+      <c r="B85" s="24"/>
     </row>
     <row r="86" spans="1:2" ht="45">
       <c r="A86" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="30">
       <c r="A87" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="30">
       <c r="A88" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="B88" s="19" t="s">
+      <c r="B89" s="19" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="23" t="s">
+    <row r="90" spans="1:2" ht="75">
+      <c r="A90" s="24"/>
+      <c r="B90" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="B89" s="19" t="s">
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="24"/>
+      <c r="B91" s="19" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="75">
-      <c r="A90" s="23"/>
-      <c r="B90" s="19" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="23"/>
-      <c r="B91" s="19" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="30">
       <c r="A92" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="30">
       <c r="A93" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A30:A32"/>
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="A75:A76"/>
     <mergeCell ref="A85:B85"/>
@@ -2257,8 +2262,6 @@
     <mergeCell ref="A82:A83"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A30:A32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Groovy!A2" display="Up"/>
@@ -2294,25 +2297,25 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Definitions/k_Definitions_Groovy.xlsx
+++ b/Definitions/k_Definitions_Groovy.xlsx
@@ -59,9 +59,6 @@
     <t>Groovy Environment setup</t>
   </si>
   <si>
-    <t>Refer chapter 2 -&gt; Groovy Environment in 1_groovy_tutorial.pdf</t>
-  </si>
-  <si>
     <t>GROOVY_HOME</t>
   </si>
   <si>
@@ -118,16 +115,7 @@
     <t>check groovy version</t>
   </si>
   <si>
-    <t>groovy -v</t>
-  </si>
-  <si>
     <t>Try this</t>
-  </si>
-  <si>
-    <t>1. open command prompt
-2. execute groovysh (set path environment variable if you see groovysh is not found as internal or external command)
-3. type 3+5 enter
-4. we will see 8</t>
   </si>
   <si>
     <t>print statement</t>
@@ -848,6 +836,20 @@
   </si>
   <si>
     <t>def is a keyword used in Groovy to define an identifier</t>
+  </si>
+  <si>
+    <t>Refer images/Groovy/groovy_tutorial.pdf -&gt; 2nd Chapter</t>
+  </si>
+  <si>
+    <t>groovy -v
+groovy --version</t>
+  </si>
+  <si>
+    <t>1. open command prompt
+2. execute groovysh (set path environment variable if you see groovysh is not found as internal or external command)
+3. type 3+5 enter
+4. we will see 8
+5. :exit -&gt; to exit groovy shell</t>
   </si>
 </sst>
 </file>
@@ -989,7 +991,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1009,6 +1011,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1385,20 +1390,20 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1436,25 +1441,25 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="23"/>
+      <c r="A2" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="24"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1462,12 +1467,12 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>9</v>
@@ -1475,65 +1480,65 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="11" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A11" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="B11" s="23"/>
+      <c r="A11" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="24"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1565,8 +1570,8 @@
   <dimension ref="A1:B93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1584,32 +1589,32 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="24"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="24"/>
     </row>
     <row r="9" spans="1:2" ht="75">
       <c r="A9" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="120">
@@ -1625,630 +1630,625 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
         <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
       <c r="A14" s="20" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
         <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45">
       <c r="A16" s="21" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="90">
       <c r="A17" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
         <v>26</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="30">
+      <c r="A19" s="20" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="20" t="s">
+      <c r="B19" s="22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="90">
+      <c r="A20" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="75">
-      <c r="A20" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>31</v>
+      <c r="B20" s="22" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
       <c r="A21" s="20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="90">
+      <c r="A23" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="25"/>
+      <c r="B24" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B25" s="19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="90">
-      <c r="A23" s="24" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="25"/>
+      <c r="B26" s="19" t="s">
         <v>36</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="24"/>
-      <c r="B24" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="24"/>
-      <c r="B26" s="19" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
       <c r="A27" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
       <c r="A29" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="90">
+      <c r="A30" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="45">
+      <c r="A31" s="25"/>
+      <c r="B31" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="90">
-      <c r="A30" s="24" t="s">
+    </row>
+    <row r="32" spans="1:2" ht="45">
+      <c r="A32" s="25"/>
+      <c r="B32" s="19" t="s">
         <v>47</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="24"/>
-      <c r="B31" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="45">
-      <c r="A32" s="24"/>
-      <c r="B32" s="19" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
       <c r="A33" s="19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
       <c r="A34" s="19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="120">
       <c r="A35" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="60">
       <c r="A37" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="60">
       <c r="A38" s="19" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B38" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30">
+      <c r="A39" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="45">
+      <c r="A40" s="25"/>
+      <c r="B40" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="45">
-      <c r="A40" s="24"/>
-      <c r="B40" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="24"/>
+      <c r="A41" s="25"/>
       <c r="B41" s="21" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="60">
       <c r="A42" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="105">
       <c r="A43" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="45">
       <c r="A44" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="45">
       <c r="A45" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30">
+      <c r="A46" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B45" s="5" t="s">
+    </row>
+    <row r="47" spans="1:2" ht="45">
+      <c r="A47" s="25"/>
+      <c r="B47" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="30">
-      <c r="A46" s="24" t="s">
+    <row r="48" spans="1:2" ht="30">
+      <c r="A48" s="25"/>
+      <c r="B48" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="45">
-      <c r="A47" s="24"/>
-      <c r="B47" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="30">
-      <c r="A48" s="24"/>
-      <c r="B48" s="5" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="105">
       <c r="A49" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="60">
+      <c r="A50" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="5" t="s">
+    </row>
+    <row r="51" spans="1:2" ht="45">
+      <c r="A51" s="25"/>
+      <c r="B51" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="60">
-      <c r="A50" s="24" t="s">
+    <row r="52" spans="1:2" ht="45">
+      <c r="A52" s="25"/>
+      <c r="B52" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="24"/>
-      <c r="B51" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="24"/>
-      <c r="B52" s="5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="60">
       <c r="A53" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="135">
+      <c r="A54" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B53" s="5" t="s">
+    </row>
+    <row r="55" spans="1:2" ht="135">
+      <c r="A55" s="25"/>
+      <c r="B55" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="135">
-      <c r="A54" s="24" t="s">
+    <row r="56" spans="1:2" ht="45">
+      <c r="A56" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B56" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="135">
-      <c r="A55" s="24"/>
-      <c r="B55" s="8" t="s">
+    <row r="57" spans="1:2" ht="210">
+      <c r="A57" s="25"/>
+      <c r="B57" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="45">
-      <c r="A56" s="24" t="s">
+    <row r="58" spans="1:2" ht="45">
+      <c r="A58" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B58" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="210">
-      <c r="A57" s="24"/>
-      <c r="B57" s="8" t="s">
+    <row r="59" spans="1:2" ht="75">
+      <c r="A59" s="25"/>
+      <c r="B59" s="8" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="75">
-      <c r="A59" s="24"/>
-      <c r="B59" s="8" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="90">
       <c r="A60" s="15" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B60" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="90">
+      <c r="A61" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="90">
+      <c r="A62" s="25"/>
+      <c r="B62" s="8" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="90">
-      <c r="A61" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="90">
-      <c r="A62" s="24"/>
-      <c r="B62" s="8" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="30">
       <c r="A63" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="45">
       <c r="A64" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="30">
+      <c r="A65" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="60">
+      <c r="A66" s="25"/>
+      <c r="B66" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="30">
-      <c r="A65" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="60">
-      <c r="A66" s="24"/>
-      <c r="B66" s="8" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="90">
       <c r="A67" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B68" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B67" s="8" t="s">
+    </row>
+    <row r="69" spans="1:2" ht="60">
+      <c r="A69" s="25"/>
+      <c r="B69" s="8" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="60">
-      <c r="A69" s="24"/>
-      <c r="B69" s="8" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="135">
       <c r="A70" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="60">
       <c r="A71" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="60">
       <c r="A72" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="75">
       <c r="A73" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="90">
       <c r="A74" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="30">
+      <c r="A75" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="90">
+      <c r="A76" s="25"/>
+      <c r="B76" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="30">
-      <c r="A75" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="90">
-      <c r="A76" s="24"/>
-      <c r="B76" s="8" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="60">
       <c r="A78" s="17" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="30">
       <c r="A79" s="17" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="30">
       <c r="A80" s="18" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="30">
       <c r="A81" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="45">
+      <c r="A82" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="B81" s="18" t="s">
+      <c r="B82" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="25"/>
+      <c r="B83" s="18" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="45">
-      <c r="A82" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="B82" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="24"/>
-      <c r="B83" s="18" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="45">
       <c r="A84" s="19" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="30" customHeight="1">
-      <c r="A85" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="B85" s="24"/>
+      <c r="A85" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="B85" s="25"/>
     </row>
     <row r="86" spans="1:2" ht="45">
       <c r="A86" s="19" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="30">
       <c r="A87" s="19" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="30">
       <c r="A88" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="B89" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="B88" s="19" t="s">
+    </row>
+    <row r="90" spans="1:2" ht="75">
+      <c r="A90" s="25"/>
+      <c r="B90" s="19" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="24" t="s">
+    <row r="91" spans="1:2">
+      <c r="A91" s="25"/>
+      <c r="B91" s="19" t="s">
         <v>171</v>
-      </c>
-      <c r="B89" s="19" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="75">
-      <c r="A90" s="24"/>
-      <c r="B90" s="19" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="24"/>
-      <c r="B91" s="19" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="30">
       <c r="A92" s="19" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="30">
       <c r="A93" s="19" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A85:B85"/>
     <mergeCell ref="A89:A91"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A8:B8"/>
@@ -2262,6 +2262,11 @@
     <mergeCell ref="A82:A83"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A85:B85"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Groovy!A2" display="Up"/>
@@ -2297,25 +2302,25 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="24"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="23"/>
+      <c r="B7" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Definitions/k_Definitions_Groovy.xlsx
+++ b/Definitions/k_Definitions_Groovy.xlsx
@@ -1423,7 +1423,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1471,7 +1471,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="22" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1479,7 +1479,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="22" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -1487,7 +1487,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="22" t="s">
         <v>122</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -1495,7 +1495,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="22" t="s">
         <v>132</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1510,7 +1510,7 @@
       <c r="B11" s="24"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>120</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1526,7 +1526,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>134</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -1534,7 +1534,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>136</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -1570,8 +1570,8 @@
   <dimension ref="A1:B93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30:A32"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1595,7 +1595,7 @@
       <c r="B2" s="24"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>126</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1610,23 +1610,23 @@
       <c r="B8" s="24"/>
     </row>
     <row r="9" spans="1:2" ht="75">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="120">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -1634,7 +1634,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="22" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -1642,7 +1642,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
@@ -1650,7 +1650,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="22" t="s">
         <v>147</v>
       </c>
       <c r="B14" t="s">
@@ -1658,7 +1658,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="22" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
@@ -1666,23 +1666,23 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="45">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="90">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B18" t="s">
@@ -1690,34 +1690,34 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="90">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="19" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1725,13 +1725,13 @@
       <c r="A23" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="19" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="25"/>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="19" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1739,37 +1739,37 @@
       <c r="A25" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="18" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="25"/>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="18" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1777,67 +1777,67 @@
       <c r="A30" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="18" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
       <c r="A31" s="25"/>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="18" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="45">
       <c r="A32" s="25"/>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="18" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="18" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="18" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="120">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="18" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="18" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="60">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="18" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="18" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="25"/>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="20" t="s">
         <v>177</v>
       </c>
     </row>
@@ -1992,7 +1992,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="90">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="14" t="s">
         <v>140</v>
       </c>
       <c r="B60" s="8" t="s">
@@ -2120,42 +2120,42 @@
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="16" t="s">
+      <c r="A77" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="B77" s="15" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="60">
-      <c r="A78" s="17" t="s">
+      <c r="A78" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="B78" s="17" t="s">
+      <c r="B78" s="16" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="30">
-      <c r="A79" s="17" t="s">
+      <c r="A79" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="B79" s="17" t="s">
+      <c r="B79" s="16" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="30">
-      <c r="A80" s="18" t="s">
+      <c r="A80" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="B80" s="17" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="30">
-      <c r="A81" s="18" t="s">
+      <c r="A81" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="B81" s="18" t="s">
+      <c r="B81" s="17" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2163,21 +2163,21 @@
       <c r="A82" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="B82" s="18" t="s">
+      <c r="B82" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="25"/>
-      <c r="B83" s="18" t="s">
+      <c r="B83" s="17" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="45">
-      <c r="A84" s="19" t="s">
+      <c r="A84" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="B84" s="19" t="s">
+      <c r="B84" s="18" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2188,26 +2188,26 @@
       <c r="B85" s="25"/>
     </row>
     <row r="86" spans="1:2" ht="45">
-      <c r="A86" s="19" t="s">
+      <c r="A86" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="B86" s="19" t="s">
+      <c r="B86" s="18" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="30">
-      <c r="A87" s="19" t="s">
+      <c r="A87" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B87" s="19" t="s">
+      <c r="B87" s="18" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="30">
-      <c r="A88" s="19" t="s">
+      <c r="A88" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="B88" s="19" t="s">
+      <c r="B88" s="18" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2215,40 +2215,42 @@
       <c r="A89" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="B89" s="19" t="s">
+      <c r="B89" s="18" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="75">
       <c r="A90" s="25"/>
-      <c r="B90" s="19" t="s">
+      <c r="B90" s="18" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="25"/>
-      <c r="B91" s="19" t="s">
+      <c r="B91" s="18" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="30">
-      <c r="A92" s="19" t="s">
+      <c r="A92" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="B92" s="19" t="s">
+      <c r="B92" s="18" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="30">
-      <c r="A93" s="19" t="s">
+      <c r="A93" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="B93" s="19" t="s">
+      <c r="B93" s="18" t="s">
         <v>175</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A85:B85"/>
     <mergeCell ref="A89:A91"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A8:B8"/>
@@ -2265,8 +2267,6 @@
     <mergeCell ref="A50:A52"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A85:B85"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Groovy!A2" display="Up"/>

--- a/Definitions/k_Definitions_Groovy.xlsx
+++ b/Definitions/k_Definitions_Groovy.xlsx
@@ -1371,7 +1371,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1423,7 +1423,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1570,8 +1570,8 @@
   <dimension ref="A1:B93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2249,6 +2249,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A68:A69"/>
     <mergeCell ref="A75:A76"/>
     <mergeCell ref="A85:B85"/>
     <mergeCell ref="A89:A91"/>
@@ -2265,8 +2267,6 @@
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A68:A69"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Groovy!A2" display="Up"/>

--- a/Definitions/k_Definitions_Groovy.xlsx
+++ b/Definitions/k_Definitions_Groovy.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="181">
   <si>
     <t>Topics</t>
   </si>
@@ -597,9 +597,6 @@
   </si>
   <si>
     <t>Github link</t>
-  </si>
-  <si>
-    <t>https://github.com/avinashbabudonthu/GroovyPractice.git</t>
   </si>
   <si>
     <t>https://github.com/avinashbabudonthu/SpockPractice.git</t>
@@ -850,6 +847,9 @@
 3. type 3+5 enter
 4. we will see 8
 5. :exit -&gt; to exit groovy shell</t>
+  </si>
+  <si>
+    <t>update in cerebro</t>
   </si>
 </sst>
 </file>
@@ -1393,7 +1393,7 @@
         <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1451,15 +1451,15 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1467,11 +1467,11 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1479,7 +1479,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -1487,7 +1487,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>122</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -1495,11 +1495,11 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1"/>
@@ -1526,19 +1526,19 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="6" t="s">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="12" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="13" t="s">
+      <c r="B15" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1570,8 +1570,8 @@
   <dimension ref="A1:B93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A54" sqref="A54:A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1595,12 +1595,10 @@
       <c r="B2" s="24"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="A3" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:2" ht="15.75" thickBot="1">
@@ -1610,31 +1608,31 @@
       <c r="B8" s="24"/>
     </row>
     <row r="9" spans="1:2" ht="75">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="120">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -1642,7 +1640,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
@@ -1650,15 +1648,15 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="22" t="s">
-        <v>147</v>
+      <c r="A14" s="21" t="s">
+        <v>146</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
@@ -1666,23 +1664,23 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="45">
-      <c r="A16" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="B16" s="22" t="s">
+      <c r="A16" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="90">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>141</v>
+      <c r="B17" s="18" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B18" t="s">
@@ -1690,34 +1688,34 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="90">
+      <c r="A20" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="20" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="90">
-      <c r="A20" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>180</v>
-      </c>
-    </row>
     <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="18" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1725,13 +1723,13 @@
       <c r="A23" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="19" t="s">
-        <v>142</v>
+      <c r="B23" s="18" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="25"/>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="18" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1739,37 +1737,37 @@
       <c r="A25" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="25"/>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="20" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="17" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1777,67 +1775,67 @@
       <c r="A30" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="17" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
       <c r="A31" s="25"/>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="45">
       <c r="A32" s="25"/>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="17" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="120">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="17" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="60">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="60">
+      <c r="A38" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="B37" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="17" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1857,8 +1855,8 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="25"/>
-      <c r="B41" s="20" t="s">
-        <v>177</v>
+      <c r="B41" s="19" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="60">
@@ -1992,8 +1990,8 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="90">
-      <c r="A60" s="14" t="s">
-        <v>140</v>
+      <c r="A60" s="13" t="s">
+        <v>139</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>90</v>
@@ -2120,140 +2118,135 @@
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B77" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="B77" s="15" t="s">
-        <v>146</v>
-      </c>
     </row>
     <row r="78" spans="1:2" ht="60">
-      <c r="A78" s="16" t="s">
+      <c r="A78" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B78" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="B78" s="16" t="s">
+    </row>
+    <row r="79" spans="1:2" ht="30">
+      <c r="A79" s="15" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" ht="30">
-      <c r="A79" s="16" t="s">
+      <c r="B79" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B79" s="16" t="s">
+    </row>
+    <row r="80" spans="1:2" ht="30">
+      <c r="A80" s="16" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" ht="30">
-      <c r="A80" s="17" t="s">
+      <c r="B80" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="B80" s="17" t="s">
+    </row>
+    <row r="81" spans="1:2" ht="30">
+      <c r="A81" s="16" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" ht="30">
-      <c r="A81" s="17" t="s">
+      <c r="B81" s="16" t="s">
         <v>154</v>
-      </c>
-      <c r="B81" s="17" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="45">
       <c r="A82" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="B82" s="17" t="s">
         <v>156</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="25"/>
-      <c r="B83" s="17" t="s">
+      <c r="B83" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="45">
+      <c r="A84" s="17" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" ht="45">
-      <c r="A84" s="18" t="s">
+      <c r="B84" s="17" t="s">
         <v>159</v>
-      </c>
-      <c r="B84" s="18" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="30" customHeight="1">
       <c r="A85" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B85" s="25"/>
+    </row>
+    <row r="86" spans="1:2" ht="45">
+      <c r="A86" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="B85" s="25"/>
-    </row>
-    <row r="86" spans="1:2" ht="45">
-      <c r="A86" s="18" t="s">
+      <c r="B86" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="B86" s="18" t="s">
+    </row>
+    <row r="87" spans="1:2" ht="30">
+      <c r="A87" s="17" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" ht="30">
-      <c r="A87" s="18" t="s">
+      <c r="B87" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="B87" s="18" t="s">
+    </row>
+    <row r="88" spans="1:2" ht="30">
+      <c r="A88" s="17" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" ht="30">
-      <c r="A88" s="18" t="s">
+      <c r="B88" s="17" t="s">
         <v>166</v>
-      </c>
-      <c r="B88" s="18" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B89" s="17" t="s">
         <v>168</v>
-      </c>
-      <c r="B89" s="18" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="75">
       <c r="A90" s="25"/>
-      <c r="B90" s="18" t="s">
-        <v>170</v>
+      <c r="B90" s="17" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="25"/>
-      <c r="B91" s="18" t="s">
+      <c r="B91" s="17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="30">
+      <c r="A92" s="17" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" ht="30">
-      <c r="A92" s="18" t="s">
+      <c r="B92" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="B92" s="18" t="s">
+    </row>
+    <row r="93" spans="1:2" ht="30">
+      <c r="A93" s="17" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" ht="30">
-      <c r="A93" s="18" t="s">
+      <c r="B93" s="17" t="s">
         <v>174</v>
-      </c>
-      <c r="B93" s="18" t="s">
-        <v>175</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A89:A91"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A25:A26"/>
@@ -2263,18 +2256,22 @@
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A82:A83"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="A82:A83"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Groovy!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
-    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2312,7 +2309,7 @@
         <v>126</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1"/>
